--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/elec/soescaomcbic/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\VT\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD08BF6D-8A50-6345-B30F-9EE6CC238563}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F0CA20-86EB-4DA3-BC92-29D6B5A682F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2540" yWindow="460" windowWidth="25660" windowHeight="16060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1845" yWindow="1770" windowWidth="20490" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1175" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="453">
   <si>
     <t>Solar PV</t>
   </si>
@@ -1394,6 +1395,9 @@
   </si>
   <si>
     <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
+  </si>
+  <si>
+    <t>Vermont</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1909,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="133">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2120,6 +2124,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2144,7 +2157,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2432,24 +2444,27 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="61.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5" customWidth="1"/>
-    <col min="4" max="4" width="65.6640625" customWidth="1"/>
-    <col min="5" max="5" width="5.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.5" customWidth="1"/>
+    <col min="2" max="2" width="61.85546875" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" customWidth="1"/>
+    <col min="4" max="4" width="65.7109375" customWidth="1"/>
+    <col min="5" max="5" width="5.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>428</v>
       </c>
-      <c r="C1" s="128">
-        <v>44307</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C1" s="124">
+        <v>44336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="74" t="s">
         <v>215</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>216</v>
       </c>
@@ -2474,7 +2489,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="83">
         <v>2018</v>
       </c>
@@ -2485,7 +2500,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>217</v>
       </c>
@@ -2496,7 +2511,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="68" t="s">
         <v>218</v>
       </c>
@@ -2507,7 +2522,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>219</v>
       </c>
@@ -2518,7 +2533,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B10" s="82" t="s">
         <v>331</v>
       </c>
@@ -2529,7 +2544,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2551,7 +2566,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>291</v>
       </c>
@@ -2562,7 +2577,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="68" t="s">
         <v>290</v>
       </c>
@@ -2573,7 +2588,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>292</v>
       </c>
@@ -2584,7 +2599,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B17" s="82" t="s">
         <v>227</v>
       </c>
@@ -2595,7 +2610,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>216</v>
       </c>
@@ -2606,7 +2621,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2617,7 +2632,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="115" t="s">
         <v>228</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="21" spans="2:6" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2643,7 +2658,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>334</v>
       </c>
@@ -2654,7 +2669,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B24" s="82" t="s">
         <v>332</v>
       </c>
@@ -2665,7 +2680,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>216</v>
       </c>
@@ -2676,7 +2691,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2687,7 +2702,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>333</v>
       </c>
@@ -2698,7 +2713,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B28" s="68" t="s">
         <v>259</v>
       </c>
@@ -2709,7 +2724,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>292</v>
       </c>
@@ -2720,37 +2735,37 @@
         <v>292</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="74" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>359</v>
       </c>
@@ -2778,21 +2793,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B43"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="74" t="s">
         <v>194</v>
       </c>
@@ -2800,7 +2817,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2808,7 +2825,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>433</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>434</v>
       </c>
@@ -2824,7 +2841,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>451</v>
       </c>
@@ -2832,7 +2849,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2840,7 +2857,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2848,7 +2865,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2856,7 +2873,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2864,7 +2881,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2872,7 +2889,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2880,7 +2897,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>432</v>
       </c>
@@ -2888,7 +2905,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>431</v>
       </c>
@@ -2896,7 +2913,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2904,7 +2921,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>444</v>
       </c>
@@ -2912,7 +2929,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>445</v>
       </c>
@@ -2920,7 +2937,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>446</v>
       </c>
@@ -2928,7 +2945,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>447</v>
       </c>
@@ -2936,7 +2953,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2944,7 +2961,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -2952,7 +2969,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2960,7 +2977,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2968,7 +2985,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2976,7 +2993,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -2984,7 +3001,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -2992,7 +3009,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>448</v>
       </c>
@@ -3000,7 +3017,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>449</v>
       </c>
@@ -3008,7 +3025,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>450</v>
       </c>
@@ -3016,7 +3033,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3024,7 +3041,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3032,7 +3049,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3040,7 +3057,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3048,7 +3065,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3056,7 +3073,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3064,7 +3081,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3072,7 +3089,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3080,7 +3097,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3088,7 +3105,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3096,7 +3113,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3104,7 +3121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3112,7 +3129,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3120,7 +3137,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3128,7 +3145,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3145,31 +3162,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:F1"/>
+    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D381" sqref="D381"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5" customWidth="1"/>
-    <col min="6" max="6" width="60.5" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="125"/>
-      <c r="C1" s="125"/>
-      <c r="D1" s="125"/>
-      <c r="E1" s="125"/>
-      <c r="F1" s="126"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="131"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +3206,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3201,7 +3218,7 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
@@ -3223,7 +3240,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
@@ -3245,7 +3262,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
@@ -3267,7 +3284,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
@@ -3289,7 +3306,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
@@ -3311,7 +3328,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
@@ -3355,7 +3372,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
@@ -3377,7 +3394,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
@@ -3399,7 +3416,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="59" t="s">
         <v>161</v>
       </c>
@@ -3421,7 +3438,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
@@ -3431,7 +3448,7 @@
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>261</v>
       </c>
@@ -3453,7 +3470,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="17" t="s">
         <v>262</v>
       </c>
@@ -3475,18 +3492,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="18" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="120" t="s">
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="125" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="121"/>
-      <c r="C18" s="121"/>
-      <c r="D18" s="122"/>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="128"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3506,7 +3523,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3518,7 +3535,7 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
         <v>241</v>
       </c>
@@ -3528,7 +3545,7 @@
       <c r="E21" s="94"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
         <v>263</v>
       </c>
@@ -3548,7 +3565,7 @@
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
         <v>264</v>
       </c>
@@ -3556,19 +3573,19 @@
         <v>9.8886671808605733E-2</v>
       </c>
       <c r="C23" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D23" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E23" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
         <v>265</v>
       </c>
@@ -3588,7 +3605,7 @@
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
         <v>266</v>
       </c>
@@ -3608,7 +3625,7 @@
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
         <v>267</v>
       </c>
@@ -3620,7 +3637,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3630,7 +3647,7 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
         <v>232</v>
       </c>
@@ -3640,7 +3657,7 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
         <v>268</v>
       </c>
@@ -3660,7 +3677,7 @@
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
         <v>269</v>
       </c>
@@ -3668,50 +3685,50 @@
         <v>1.1545687086842617E-2</v>
       </c>
       <c r="C30" s="21" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D30" s="21" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E30" s="94" t="s">
+        <v>309</v>
+      </c>
+      <c r="F30" s="16"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B31" s="15">
+        <v>1.2169934344764067E-2</v>
+      </c>
+      <c r="C31" s="21" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D30" s="21" t="str">
+      <c r="D31" s="21" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
-      <c r="E30" s="94" t="s">
-        <v>309</v>
-      </c>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B31" s="15">
-        <v>1.2169934344764067E-2</v>
-      </c>
-      <c r="C31" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D31" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
       <c r="E31" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
         <v>271</v>
       </c>
       <c r="B32" s="95">
         <v>2.2230409954455552E-2</v>
       </c>
-      <c r="C32" s="97" t="str">
+      <c r="C32" s="121" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D32" s="97" t="str">
+      <c r="D32" s="121" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3720,7 +3737,7 @@
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
         <v>272</v>
       </c>
@@ -3732,7 +3749,7 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
         <v>235</v>
       </c>
@@ -3742,7 +3759,7 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
         <v>273</v>
       </c>
@@ -3762,7 +3779,7 @@
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
         <v>274</v>
       </c>
@@ -3782,7 +3799,7 @@
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
         <v>240</v>
       </c>
@@ -3802,7 +3819,7 @@
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
         <v>275</v>
       </c>
@@ -3822,7 +3839,7 @@
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
         <v>276</v>
       </c>
@@ -3842,7 +3859,7 @@
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
         <v>277</v>
       </c>
@@ -3854,7 +3871,7 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
         <v>278</v>
       </c>
@@ -3864,7 +3881,7 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
         <v>279</v>
       </c>
@@ -3874,7 +3891,7 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
         <v>280</v>
       </c>
@@ -3882,19 +3899,19 @@
         <v>7.014549101207153E-3</v>
       </c>
       <c r="C43" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D43" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E43" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
         <v>281</v>
       </c>
@@ -3914,7 +3931,7 @@
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
         <v>282</v>
       </c>
@@ -3934,7 +3951,7 @@
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
         <v>283</v>
       </c>
@@ -3954,7 +3971,7 @@
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
         <v>284</v>
       </c>
@@ -3974,7 +3991,7 @@
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
         <v>285</v>
       </c>
@@ -3994,7 +4011,7 @@
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
         <v>286</v>
       </c>
@@ -4006,7 +4023,7 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
         <v>287</v>
       </c>
@@ -4018,7 +4035,7 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
         <v>288</v>
       </c>
@@ -4030,7 +4047,7 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
         <v>289</v>
       </c>
@@ -4050,7 +4067,7 @@
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4062,7 +4079,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4072,7 +4089,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4082,7 +4099,7 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
         <v>293</v>
       </c>
@@ -4092,7 +4109,7 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
         <v>294</v>
       </c>
@@ -4112,7 +4129,7 @@
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
         <v>295</v>
       </c>
@@ -4132,7 +4149,7 @@
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
         <v>296</v>
       </c>
@@ -4152,7 +4169,7 @@
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
         <v>297</v>
       </c>
@@ -4164,7 +4181,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4174,7 +4191,7 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
         <v>298</v>
       </c>
@@ -4194,7 +4211,7 @@
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
         <v>299</v>
       </c>
@@ -4214,7 +4231,7 @@
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
         <v>300</v>
       </c>
@@ -4234,7 +4251,7 @@
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
         <v>301</v>
       </c>
@@ -4254,7 +4271,7 @@
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
         <v>302</v>
       </c>
@@ -4274,7 +4291,7 @@
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
         <v>303</v>
       </c>
@@ -4282,19 +4299,19 @@
         <v>9.5771625191948158E-3</v>
       </c>
       <c r="C67" s="21" t="str">
-        <f>'OECD Mapping'!A30</f>
-        <v>D45T47: Wholesale and retail trade; repair of motor vehicles</v>
+        <f>'OECD Mapping'!A11</f>
+        <v>D19: Coke and refined petroleum products</v>
       </c>
       <c r="D67" s="21" t="str">
-        <f>'OECD Mapping'!B30</f>
-        <v>ISIC 45T47</v>
+        <f>'OECD Mapping'!B11</f>
+        <v>ISIC 19</v>
       </c>
       <c r="E67" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
         <v>304</v>
       </c>
@@ -4314,7 +4331,7 @@
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
         <v>305</v>
       </c>
@@ -4322,19 +4339,19 @@
         <v>0.54552991118951999</v>
       </c>
       <c r="C69" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D69" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E69" s="94" t="s">
         <v>309</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
         <v>306</v>
       </c>
@@ -4346,7 +4363,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4366,7 +4383,7 @@
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
         <v>307</v>
       </c>
@@ -4378,7 +4395,7 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="24" t="s">
         <v>308</v>
       </c>
@@ -4390,18 +4407,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="75" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="124" t="s">
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A75" s="129" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="125"/>
-      <c r="C75" s="125"/>
-      <c r="D75" s="127"/>
-      <c r="E75" s="127"/>
-      <c r="F75" s="126"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="130"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="132"/>
+      <c r="E75" s="132"/>
+      <c r="F75" s="131"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4421,7 +4438,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4429,7 +4446,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4440,7 +4457,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4462,7 +4479,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4484,7 +4501,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4506,7 +4523,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4521,7 +4538,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4533,7 +4550,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4555,7 +4572,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4577,7 +4594,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4592,7 +4609,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4607,7 +4624,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4619,7 +4636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4641,7 +4658,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4663,7 +4680,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4685,7 +4702,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4707,7 +4724,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4729,7 +4746,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4751,7 +4768,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4773,7 +4790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4795,7 +4812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4808,7 +4825,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4821,7 +4838,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4831,7 +4848,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4853,7 +4870,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4875,7 +4892,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4897,7 +4914,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4910,7 +4927,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4920,7 +4937,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4942,7 +4959,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4964,7 +4981,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -4986,7 +5003,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -4999,18 +5016,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="124" t="s">
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A110" s="129" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="125"/>
-      <c r="C110" s="125"/>
-      <c r="D110" s="127"/>
-      <c r="E110" s="127"/>
-      <c r="F110" s="126"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="130"/>
+      <c r="C110" s="130"/>
+      <c r="D110" s="132"/>
+      <c r="E110" s="132"/>
+      <c r="F110" s="131"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5030,7 +5047,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5042,12 +5059,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5069,7 +5086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5091,7 +5108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5113,7 +5130,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5127,7 +5144,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5139,7 +5156,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5161,7 +5178,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5183,7 +5200,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5205,7 +5222,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5219,7 +5236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5233,7 +5250,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5245,7 +5262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5267,7 +5284,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5289,7 +5306,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5311,7 +5328,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5333,7 +5350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5355,7 +5372,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5377,7 +5394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5389,7 +5406,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5403,7 +5420,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5418,7 +5435,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5430,7 +5447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5452,7 +5469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5474,7 +5491,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5496,7 +5513,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5511,7 +5528,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5521,7 +5538,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5543,7 +5560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5565,7 +5582,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5587,7 +5604,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5600,18 +5617,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="145" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A145" s="120" t="s">
+    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A145" s="125" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="121"/>
-      <c r="C145" s="121"/>
-      <c r="D145" s="122"/>
-      <c r="E145" s="122"/>
-      <c r="F145" s="123"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B145" s="126"/>
+      <c r="C145" s="126"/>
+      <c r="D145" s="127"/>
+      <c r="E145" s="127"/>
+      <c r="F145" s="128"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5631,7 +5648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5643,7 +5660,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5653,7 +5670,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5672,7 +5689,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5694,7 +5711,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5716,7 +5733,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5738,7 +5755,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5760,7 +5777,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5782,7 +5799,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5804,7 +5821,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5826,7 +5843,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5848,7 +5865,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5862,7 +5879,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5872,7 +5889,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5894,7 +5911,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5904,7 +5921,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5926,18 +5943,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A164" s="120" t="s">
+    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A164" s="125" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="121"/>
-      <c r="C164" s="121"/>
-      <c r="D164" s="122"/>
-      <c r="E164" s="122"/>
-      <c r="F164" s="123"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B164" s="126"/>
+      <c r="C164" s="126"/>
+      <c r="D164" s="127"/>
+      <c r="E164" s="127"/>
+      <c r="F164" s="128"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5957,7 +5974,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5969,7 +5986,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5980,7 +5997,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -6002,7 +6019,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6024,7 +6041,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6038,7 +6055,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6050,7 +6067,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6072,7 +6089,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6086,7 +6103,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6098,7 +6115,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6120,7 +6137,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6142,7 +6159,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6164,7 +6181,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6186,7 +6203,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6208,7 +6225,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6230,7 +6247,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6252,7 +6269,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6266,7 +6283,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6278,7 +6295,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6300,7 +6317,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6322,7 +6339,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6344,7 +6361,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6366,7 +6383,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6388,7 +6405,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6410,7 +6427,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6432,7 +6449,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6454,7 +6471,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6468,7 +6485,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6480,7 +6497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6502,7 +6519,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6524,7 +6541,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6546,7 +6563,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6568,7 +6585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6590,7 +6607,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6604,7 +6621,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6618,7 +6635,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6632,7 +6649,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6646,7 +6663,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6658,7 +6675,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6680,7 +6697,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6692,20 +6709,20 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B206" s="15">
         <v>9.6589707207620543E-2</v>
       </c>
-      <c r="C206" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D206" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C206" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D206" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E206" s="77" t="s">
         <v>311</v>
@@ -6714,7 +6731,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6736,7 +6753,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6758,7 +6775,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6780,7 +6797,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6802,7 +6819,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6824,7 +6841,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6838,7 +6855,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6852,7 +6869,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6866,7 +6883,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6880,7 +6897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6890,7 +6907,7 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="100" t="s">
         <v>312</v>
       </c>
@@ -6912,18 +6929,18 @@
         <v>313</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="219" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A219" s="120" t="s">
+    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A219" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="B219" s="121"/>
-      <c r="C219" s="121"/>
-      <c r="D219" s="122"/>
-      <c r="E219" s="122"/>
-      <c r="F219" s="123"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B219" s="126"/>
+      <c r="C219" s="126"/>
+      <c r="D219" s="127"/>
+      <c r="E219" s="127"/>
+      <c r="F219" s="128"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6943,7 +6960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6955,7 +6972,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6977,7 +6994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -6999,7 +7016,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7021,7 +7038,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7043,7 +7060,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7051,12 +7068,12 @@
         <v>0.11999999999999998</v>
       </c>
       <c r="C226" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
       </c>
       <c r="D226" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E226" s="101" t="s">
         <v>198</v>
@@ -7065,7 +7082,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7087,7 +7104,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7097,7 +7114,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7119,7 +7136,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7129,7 +7146,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7151,7 +7168,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7173,7 +7190,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7195,18 +7212,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="235" spans="1:6" ht="19" x14ac:dyDescent="0.25">
-      <c r="A235" s="120" t="s">
+    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A235" s="125" t="s">
         <v>231</v>
       </c>
-      <c r="B235" s="121"/>
-      <c r="C235" s="121"/>
-      <c r="D235" s="122"/>
-      <c r="E235" s="122"/>
-      <c r="F235" s="123"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B235" s="126"/>
+      <c r="C235" s="126"/>
+      <c r="D235" s="127"/>
+      <c r="E235" s="127"/>
+      <c r="F235" s="128"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7226,7 +7243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7238,7 +7255,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="87" t="s">
         <v>232</v>
       </c>
@@ -7248,7 +7265,7 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="87" t="s">
         <v>233</v>
       </c>
@@ -7270,7 +7287,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="87" t="s">
         <v>234</v>
       </c>
@@ -7282,7 +7299,7 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="87" t="s">
         <v>235</v>
       </c>
@@ -7292,7 +7309,7 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="87" t="s">
         <v>236</v>
       </c>
@@ -7314,7 +7331,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="87" t="s">
         <v>237</v>
       </c>
@@ -7336,7 +7353,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="40" t="s">
         <v>238</v>
       </c>
@@ -7358,7 +7375,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="87" t="s">
         <v>239</v>
       </c>
@@ -7380,7 +7397,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="40" t="s">
         <v>240</v>
       </c>
@@ -7402,7 +7419,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="7" t="s">
         <v>234</v>
       </c>
@@ -7414,7 +7431,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7426,7 +7443,7 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
         <v>241</v>
       </c>
@@ -7436,7 +7453,7 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="87" t="s">
         <v>242</v>
       </c>
@@ -7444,12 +7461,12 @@
         <v>5.9171738835744038E-2</v>
       </c>
       <c r="C250" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
+        <f>'OECD Mapping'!A15</f>
+        <v>D231: Glass</v>
       </c>
       <c r="D250" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+        <f>'OECD Mapping'!B15</f>
+        <v>ISIC 231</v>
       </c>
       <c r="E250" s="21" t="s">
         <v>260</v>
@@ -7458,7 +7475,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="87" t="s">
         <v>243</v>
       </c>
@@ -7480,7 +7497,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="87" t="s">
         <v>244</v>
       </c>
@@ -7502,7 +7519,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="87" t="s">
         <v>245</v>
       </c>
@@ -7524,7 +7541,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="87" t="s">
         <v>246</v>
       </c>
@@ -7546,20 +7563,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="87" t="s">
         <v>247</v>
       </c>
       <c r="B255" s="15">
         <v>0.11718436104510066</v>
       </c>
-      <c r="C255" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D255" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C255" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D255" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E255" s="21" t="s">
         <v>260</v>
@@ -7568,18 +7585,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="87" t="s">
         <v>248</v>
       </c>
       <c r="B256" s="15">
         <v>7.9186887114255214E-2</v>
       </c>
-      <c r="C256" s="21" t="str">
+      <c r="C256" s="120" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D256" s="21" t="str">
+      <c r="D256" s="120" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7590,18 +7607,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="87" t="s">
         <v>249</v>
       </c>
       <c r="B257" s="15">
         <v>2.6662594760242975E-3</v>
       </c>
-      <c r="C257" s="21" t="str">
+      <c r="C257" s="120" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D257" s="21" t="str">
+      <c r="D257" s="120" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7612,18 +7629,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="87" t="s">
         <v>250</v>
       </c>
       <c r="B258" s="15">
         <v>2.3065838394442859E-3</v>
       </c>
-      <c r="C258" s="21" t="str">
+      <c r="C258" s="120" t="str">
         <f>'OECD Mapping'!A22</f>
         <v>D28: Machinery and equipment, nec</v>
       </c>
-      <c r="D258" s="21" t="str">
+      <c r="D258" s="120" t="str">
         <f>'OECD Mapping'!B22</f>
         <v>ISIC 28</v>
       </c>
@@ -7634,18 +7651,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="87" t="s">
         <v>251</v>
       </c>
       <c r="B259" s="15">
         <v>3.5527798304773789E-2</v>
       </c>
-      <c r="C259" s="21" t="str">
+      <c r="C259" s="120" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D259" s="21" t="str">
+      <c r="D259" s="120" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
@@ -7656,20 +7673,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="87" t="s">
         <v>252</v>
       </c>
       <c r="B260" s="15">
         <v>5.1620006644230103E-2</v>
       </c>
-      <c r="C260" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D260" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C260" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D260" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E260" s="21" t="s">
         <v>260</v>
@@ -7678,18 +7695,18 @@
         <v>259</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="87" t="s">
         <v>253</v>
       </c>
       <c r="B261" s="15">
         <v>1.7845445045700584E-2</v>
       </c>
-      <c r="C261" s="21" t="str">
+      <c r="C261" s="120" t="str">
         <f>'OECD Mapping'!A21</f>
         <v>D27: Electrical equipment</v>
       </c>
-      <c r="D261" s="21" t="str">
+      <c r="D261" s="120" t="str">
         <f>'OECD Mapping'!B21</f>
         <v>ISIC 27</v>
       </c>
@@ -7700,20 +7717,20 @@
         <v>259</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="87" t="s">
         <v>254</v>
       </c>
       <c r="B262" s="15">
         <v>2.0360262148428034E-2</v>
       </c>
-      <c r="C262" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D262" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
+      <c r="C262" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D262" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
       </c>
       <c r="E262" s="21" t="s">
         <v>260</v>
@@ -7722,7 +7739,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7734,7 +7751,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7744,7 +7761,7 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="87" t="s">
         <v>255</v>
       </c>
@@ -7766,7 +7783,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="87" t="s">
         <v>256</v>
       </c>
@@ -7788,7 +7805,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="87" t="s">
         <v>257</v>
       </c>
@@ -7810,7 +7827,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7822,7 +7839,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7834,7 +7851,7 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="87" t="s">
         <v>258</v>
       </c>
@@ -7844,7 +7861,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7854,7 +7871,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7864,7 +7881,7 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="105" t="s">
         <v>293</v>
       </c>
@@ -7874,7 +7891,7 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="87" t="s">
         <v>319</v>
       </c>
@@ -7896,7 +7913,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="87" t="s">
         <v>295</v>
       </c>
@@ -7918,7 +7935,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="87" t="s">
         <v>320</v>
       </c>
@@ -7940,7 +7957,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="87" t="s">
         <v>321</v>
       </c>
@@ -7962,7 +7979,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="87" t="s">
         <v>318</v>
       </c>
@@ -7974,7 +7991,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -7984,7 +8001,7 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="87" t="s">
         <v>322</v>
       </c>
@@ -8004,7 +8021,7 @@
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="87" t="s">
         <v>323</v>
       </c>
@@ -8026,7 +8043,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="87" t="s">
         <v>324</v>
       </c>
@@ -8048,7 +8065,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="87" t="s">
         <v>301</v>
       </c>
@@ -8070,73 +8087,73 @@
         <v>259</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="87" t="s">
         <v>303</v>
       </c>
       <c r="B284" s="15">
         <v>0</v>
       </c>
-      <c r="C284" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D284" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E284" s="21" t="s">
+      <c r="C284" s="120" t="str">
+        <f>'OECD Mapping'!A11</f>
+        <v>D19: Coke and refined petroleum products</v>
+      </c>
+      <c r="D284" s="120" t="str">
+        <f>'OECD Mapping'!B11</f>
+        <v>ISIC 19</v>
+      </c>
+      <c r="E284" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F284" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="87" t="s">
         <v>325</v>
       </c>
       <c r="B285" s="15">
         <v>0.42277656301083044</v>
       </c>
-      <c r="C285" s="21" t="str">
+      <c r="C285" s="120" t="str">
         <f>'OECD Mapping'!A19</f>
         <v>D25: Fabricated metal products</v>
       </c>
-      <c r="D285" s="21" t="str">
+      <c r="D285" s="120" t="str">
         <f>'OECD Mapping'!B19</f>
         <v>ISIC 25</v>
       </c>
-      <c r="E285" s="21" t="s">
+      <c r="E285" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F285" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="87" t="s">
         <v>326</v>
       </c>
       <c r="B286" s="15">
         <v>0</v>
       </c>
-      <c r="C286" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D286" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E286" s="21" t="s">
+      <c r="C286" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D286" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E286" s="120" t="s">
         <v>329</v>
       </c>
       <c r="F286" s="68" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="87" t="s">
         <v>306</v>
       </c>
@@ -8148,7 +8165,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8160,17 +8177,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A289" s="120" t="s">
+    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A289" s="125" t="s">
         <v>341</v>
       </c>
-      <c r="B289" s="121"/>
-      <c r="C289" s="121"/>
-      <c r="D289" s="122"/>
-      <c r="E289" s="122"/>
-      <c r="F289" s="123"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B289" s="126"/>
+      <c r="C289" s="126"/>
+      <c r="D289" s="127"/>
+      <c r="E289" s="127"/>
+      <c r="F289" s="128"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8190,7 +8207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8202,7 +8219,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="90" t="s">
         <v>342</v>
       </c>
@@ -8212,7 +8229,7 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="87" t="s">
         <v>343</v>
       </c>
@@ -8234,7 +8251,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="87" t="s">
         <v>344</v>
       </c>
@@ -8256,7 +8273,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="87" t="s">
         <v>345</v>
       </c>
@@ -8278,7 +8295,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="87" t="s">
         <v>346</v>
       </c>
@@ -8300,7 +8317,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="87" t="s">
         <v>347</v>
       </c>
@@ -8322,7 +8339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="87" t="s">
         <v>348</v>
       </c>
@@ -8344,7 +8361,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="87" t="s">
         <v>349</v>
       </c>
@@ -8366,7 +8383,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="87" t="s">
         <v>350</v>
       </c>
@@ -8388,7 +8405,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="87" t="s">
         <v>351</v>
       </c>
@@ -8410,7 +8427,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="90" t="s">
         <v>352</v>
       </c>
@@ -8420,7 +8437,7 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="87" t="s">
         <v>353</v>
       </c>
@@ -8442,7 +8459,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="87" t="s">
         <v>354</v>
       </c>
@@ -8464,7 +8481,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="87" t="s">
         <v>355</v>
       </c>
@@ -8486,7 +8503,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="88" t="s">
         <v>356</v>
       </c>
@@ -8508,7 +8525,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8518,7 +8535,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8540,29 +8557,29 @@
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="111" t="s">
         <v>362</v>
       </c>
       <c r="B309" s="15">
         <v>0.58345780433159067</v>
       </c>
-      <c r="C309" s="15" t="str">
+      <c r="C309" s="122" t="str">
         <f>'OECD Mapping'!A25</f>
         <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
       </c>
-      <c r="D309" s="15" t="str">
+      <c r="D309" s="122" t="str">
         <f>'OECD Mapping'!B25</f>
         <v>ISIC 31T33</v>
       </c>
-      <c r="E309" s="21" t="s">
+      <c r="E309" s="120" t="s">
         <v>328</v>
       </c>
       <c r="F309" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="111" t="s">
         <v>363</v>
       </c>
@@ -8584,7 +8601,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="112" t="s">
         <v>364</v>
       </c>
@@ -8606,7 +8623,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8616,7 +8633,7 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="30" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="114" t="s">
         <v>360</v>
       </c>
@@ -8638,22 +8655,22 @@
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A315" s="120" t="s">
+    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A315" s="125" t="s">
         <v>369</v>
       </c>
-      <c r="B315" s="121"/>
-      <c r="C315" s="121"/>
-      <c r="D315" s="122"/>
-      <c r="E315" s="122"/>
-      <c r="F315" s="123"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B315" s="126"/>
+      <c r="C315" s="126"/>
+      <c r="D315" s="127"/>
+      <c r="E315" s="127"/>
+      <c r="F315" s="128"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8673,7 +8690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8685,7 +8702,7 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="20" t="s">
         <v>370</v>
       </c>
@@ -8695,7 +8712,7 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="20" t="s">
         <v>371</v>
       </c>
@@ -8715,7 +8732,7 @@
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="20" t="s">
         <v>372</v>
       </c>
@@ -8735,7 +8752,7 @@
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="20" t="s">
         <v>373</v>
       </c>
@@ -8755,7 +8772,7 @@
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="20" t="s">
         <v>374</v>
       </c>
@@ -8775,7 +8792,7 @@
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="20" t="s">
         <v>375</v>
       </c>
@@ -8795,7 +8812,7 @@
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="20" t="s">
         <v>376</v>
       </c>
@@ -8807,7 +8824,7 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="20" t="s">
         <v>377</v>
       </c>
@@ -8817,27 +8834,27 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="20" t="s">
         <v>378</v>
       </c>
       <c r="B326" s="15">
         <v>5.9790282669963217E-3</v>
       </c>
-      <c r="C326" s="21" t="str">
-        <f>'OECD Mapping'!A25</f>
-        <v>D31T33: Other manufacturing; repair and installation of machinery and equipment</v>
-      </c>
-      <c r="D326" s="21" t="str">
-        <f>'OECD Mapping'!B25</f>
-        <v>ISIC 31T33</v>
-      </c>
-      <c r="E326" s="94" t="s">
+      <c r="C326" s="120" t="str">
+        <f>'OECD Mapping'!A22</f>
+        <v>D28: Machinery and equipment, nec</v>
+      </c>
+      <c r="D326" s="120" t="str">
+        <f>'OECD Mapping'!B22</f>
+        <v>ISIC 28</v>
+      </c>
+      <c r="E326" s="123" t="s">
         <v>411</v>
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="20" t="s">
         <v>379</v>
       </c>
@@ -8857,7 +8874,7 @@
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="20" t="s">
         <v>380</v>
       </c>
@@ -8877,7 +8894,7 @@
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="20" t="s">
         <v>381</v>
       </c>
@@ -8897,7 +8914,7 @@
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="20" t="s">
         <v>382</v>
       </c>
@@ -8917,7 +8934,7 @@
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="20" t="s">
         <v>383</v>
       </c>
@@ -8937,7 +8954,7 @@
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="20" t="s">
         <v>384</v>
       </c>
@@ -8957,7 +8974,7 @@
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="20" t="s">
         <v>385</v>
       </c>
@@ -8969,7 +8986,7 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="20" t="s">
         <v>386</v>
       </c>
@@ -8979,7 +8996,7 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="20" t="s">
         <v>273</v>
       </c>
@@ -8999,7 +9016,7 @@
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="20" t="s">
         <v>387</v>
       </c>
@@ -9019,7 +9036,7 @@
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="20" t="s">
         <v>388</v>
       </c>
@@ -9039,7 +9056,7 @@
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="20" t="s">
         <v>389</v>
       </c>
@@ -9059,7 +9076,7 @@
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="20" t="s">
         <v>390</v>
       </c>
@@ -9079,7 +9096,7 @@
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="20" t="s">
         <v>275</v>
       </c>
@@ -9099,7 +9116,7 @@
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="20" t="s">
         <v>391</v>
       </c>
@@ -9111,7 +9128,7 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="20" t="s">
         <v>392</v>
       </c>
@@ -9121,7 +9138,7 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="20" t="s">
         <v>393</v>
       </c>
@@ -9141,7 +9158,7 @@
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="20" t="s">
         <v>394</v>
       </c>
@@ -9151,7 +9168,7 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="20" t="s">
         <v>282</v>
       </c>
@@ -9171,7 +9188,7 @@
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="20" t="s">
         <v>283</v>
       </c>
@@ -9191,7 +9208,7 @@
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="20" t="s">
         <v>395</v>
       </c>
@@ -9211,7 +9228,7 @@
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="20" t="s">
         <v>396</v>
       </c>
@@ -9231,7 +9248,7 @@
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="20" t="s">
         <v>285</v>
       </c>
@@ -9251,7 +9268,7 @@
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="20" t="s">
         <v>397</v>
       </c>
@@ -9271,7 +9288,7 @@
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="20" t="s">
         <v>398</v>
       </c>
@@ -9291,7 +9308,7 @@
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="20" t="s">
         <v>399</v>
       </c>
@@ -9311,7 +9328,7 @@
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="20" t="s">
         <v>400</v>
       </c>
@@ -9331,7 +9348,7 @@
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="20" t="s">
         <v>401</v>
       </c>
@@ -9343,7 +9360,7 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="20" t="s">
         <v>402</v>
       </c>
@@ -9353,7 +9370,7 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="20" t="s">
         <v>403</v>
       </c>
@@ -9373,7 +9390,7 @@
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="20" t="s">
         <v>404</v>
       </c>
@@ -9393,7 +9410,7 @@
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="20" t="s">
         <v>405</v>
       </c>
@@ -9413,7 +9430,7 @@
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="20" t="s">
         <v>406</v>
       </c>
@@ -9433,7 +9450,7 @@
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="20" t="s">
         <v>407</v>
       </c>
@@ -9445,7 +9462,7 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="20" t="s">
         <v>408</v>
       </c>
@@ -9465,7 +9482,7 @@
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="20" t="s">
         <v>409</v>
       </c>
@@ -9477,7 +9494,7 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="20" t="s">
         <v>289</v>
       </c>
@@ -9497,7 +9514,7 @@
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A364" s="70" t="s">
         <v>410</v>
       </c>
@@ -9509,7 +9526,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9519,7 +9536,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9529,7 +9546,7 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="20" t="s">
         <v>412</v>
       </c>
@@ -9549,7 +9566,7 @@
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="20" t="s">
         <v>413</v>
       </c>
@@ -9569,7 +9586,7 @@
       </c>
       <c r="F368" s="6"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="20" t="s">
         <v>414</v>
       </c>
@@ -9589,7 +9606,7 @@
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="20" t="s">
         <v>275</v>
       </c>
@@ -9609,7 +9626,7 @@
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="20" t="s">
         <v>415</v>
       </c>
@@ -9621,7 +9638,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9631,7 +9648,7 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="20" t="s">
         <v>416</v>
       </c>
@@ -9651,7 +9668,7 @@
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="20" t="s">
         <v>417</v>
       </c>
@@ -9671,7 +9688,7 @@
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="20" t="s">
         <v>418</v>
       </c>
@@ -9691,7 +9708,7 @@
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="20" t="s">
         <v>419</v>
       </c>
@@ -9711,7 +9728,7 @@
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="20" t="s">
         <v>420</v>
       </c>
@@ -9731,7 +9748,7 @@
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="20" t="s">
         <v>421</v>
       </c>
@@ -9743,7 +9760,7 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="20" t="s">
         <v>409</v>
       </c>
@@ -9755,7 +9772,7 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="20" t="s">
         <v>289</v>
       </c>
@@ -9775,7 +9792,7 @@
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A381" s="24" t="s">
         <v>422</v>
       </c>
@@ -9885,35 +9902,37 @@
   </sheetPr>
   <dimension ref="A1:AQ17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.6640625" customWidth="1"/>
-    <col min="14" max="24" width="7.6640625" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7109375" customWidth="1"/>
+    <col min="14" max="24" width="7.7109375" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -10041,7 +10060,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -10214,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -10387,7 +10406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -10560,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -10733,7 +10752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -10815,11 +10834,11 @@
       </c>
       <c r="U6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>1.1545687086842617E-2</v>
+        <v>1.2169934344764067E-2</v>
       </c>
       <c r="V6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>0.42238735529675886</v>
+        <v>0.53983426329341444</v>
       </c>
       <c r="W6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$22:$B$52)</f>
@@ -10831,7 +10850,7 @@
       </c>
       <c r="Y6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$22:$B$52)</f>
-        <v>0.11807115525457695</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$22:$D$52,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$22:$B$52)</f>
@@ -10906,7 +10925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -11079,7 +11098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11137,7 +11156,7 @@
       </c>
       <c r="O8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!O$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>0</v>
+        <v>5.9171738835744038E-2</v>
       </c>
       <c r="P8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!P$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11165,7 +11184,7 @@
       </c>
       <c r="V8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>8.1493470953699493E-2</v>
+        <v>0.27065810079145824</v>
       </c>
       <c r="W8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11177,7 +11196,7 @@
       </c>
       <c r="Y8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$239:$B$267)</f>
-        <v>0.24833636867350284</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$239:$D$267,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$239:$B$267)</f>
@@ -11252,7 +11271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11338,7 +11357,7 @@
       </c>
       <c r="V9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$222:$B$227)</f>
-        <v>0.55999999999999994</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="W9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$222:$B$227)</f>
@@ -11350,7 +11369,7 @@
       </c>
       <c r="Y9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$222:$B$227)</f>
-        <v>0.11999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$222:$D$227,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$222:$B$227)</f>
@@ -11425,7 +11444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -11598,7 +11617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -11771,7 +11790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11944,7 +11963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -12117,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -12203,7 +12222,7 @@
       </c>
       <c r="V14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$319:$B$363)</f>
-        <v>4.8279391145854111E-2</v>
+        <v>5.4258419412850437E-2</v>
       </c>
       <c r="W14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$319:$B$363)</f>
@@ -12215,7 +12234,7 @@
       </c>
       <c r="Y14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$319:$B$363)</f>
-        <v>5.9790282669963217E-3</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$319:$D$363,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$319:$B$363)</f>
@@ -12290,7 +12309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12463,7 +12482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12636,7 +12655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -12722,7 +12741,7 @@
       </c>
       <c r="V17" s="106">
         <f t="shared" si="8"/>
-        <v>0.55999999999999994</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="W17" s="106">
         <f t="shared" si="8"/>
@@ -12734,7 +12753,7 @@
       </c>
       <c r="Y17" s="106">
         <f t="shared" si="8"/>
-        <v>0.11999999999999998</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="106">
         <f t="shared" si="8"/>
@@ -12823,32 +12842,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.1640625" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.140625" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.1640625" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.140625" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -12976,7 +12995,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13149,7 +13168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -13322,7 +13341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -13495,7 +13514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -13581,7 +13600,7 @@
       </c>
       <c r="V5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$204:$B$211)</f>
-        <v>0</v>
+        <v>9.6589707207620543E-2</v>
       </c>
       <c r="W5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$204:$B$211)</f>
@@ -13593,7 +13612,7 @@
       </c>
       <c r="Y5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$204:$B$211)</f>
-        <v>9.6589707207620543E-2</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$204:$D$211,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$204:$B$211)</f>
@@ -13668,7 +13687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -13710,7 +13729,7 @@
       </c>
       <c r="K6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!K$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0</v>
+        <v>9.5771625191948158E-3</v>
       </c>
       <c r="L6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!L$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13754,7 +13773,7 @@
       </c>
       <c r="V6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0</v>
+        <v>0.54552991118951999</v>
       </c>
       <c r="W6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!W$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13766,7 +13785,7 @@
       </c>
       <c r="Y6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!Y$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>0.54552991118951999</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!Z$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13786,7 +13805,7 @@
       </c>
       <c r="AD6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$57:$B$71)</f>
-        <v>9.6385545866255529E-2</v>
+        <v>8.6808383347060702E-2</v>
       </c>
       <c r="AE6" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$57:$D$71,'SoESCaOMCbIC-capital'!AE$1,'Cost Breakdowns'!$B$57:$B$71)</f>
@@ -13841,7 +13860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -14014,7 +14033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -14187,7 +14206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -14360,7 +14379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -14533,7 +14552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -14706,7 +14725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -14879,7 +14898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -15052,7 +15071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -15225,7 +15244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -15398,7 +15417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -15571,7 +15590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -15758,32 +15777,32 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.33203125" customWidth="1"/>
-    <col min="25" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.6640625" customWidth="1"/>
-    <col min="29" max="33" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.28515625" customWidth="1"/>
+    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7109375" customWidth="1"/>
+    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
@@ -15911,7 +15930,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16084,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -16257,7 +16276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -16430,7 +16449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -16603,7 +16622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16734,7 +16753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16865,7 +16884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -16996,7 +17015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -17169,7 +17188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -17342,7 +17361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -17515,7 +17534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -17688,7 +17707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -17861,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -17992,7 +18011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -18165,7 +18184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -18338,7 +18357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>214</v>
       </c>

--- a/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
+++ b/InputData/elec/SoESCaOMCbIC/Share of Electricity Sector Capital and OM Costs by ISIC Code.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\All_states_RMI\VT\elec\SoESCaOMCbIC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\United States\us-eps\InputData\elec\SoESCaOMCbIC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{77F0CA20-86EB-4DA3-BC92-29D6B5A682F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674A75DD-635B-45D2-8C68-4DB383907DFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1845" yWindow="1770" windowWidth="20490" windowHeight="15075" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="4" r:id="rId1"/>
     <sheet name="OECD Mapping" sheetId="2" r:id="rId2"/>
     <sheet name="Cost Breakdowns" sheetId="1" r:id="rId3"/>
-    <sheet name="SoESCaOMCbIC-capital" sheetId="3" r:id="rId4"/>
-    <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId5"/>
-    <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId6"/>
+    <sheet name="graphs_nrel" sheetId="7" r:id="rId4"/>
+    <sheet name="SoESCaOMCbIC-capital" sheetId="3" r:id="rId5"/>
+    <sheet name="SoESCaOMCbIC-fixedOM" sheetId="6" r:id="rId6"/>
+    <sheet name="SoESCaOMCbIC-variableOM" sheetId="5" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,6 +33,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1176" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1207" uniqueCount="470">
   <si>
     <t>Solar PV</t>
   </si>
@@ -692,15 +694,6 @@
     <t>NREL</t>
   </si>
   <si>
-    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2018</t>
-  </si>
-  <si>
-    <t>https://www.nrel.gov/docs/fy19osti/72399.pdf</t>
-  </si>
-  <si>
-    <t>Figure 28</t>
-  </si>
-  <si>
     <t>JEDI Coal Model</t>
   </si>
   <si>
@@ -1397,7 +1390,67 @@
     <t>D07T08: Mining and quarrying of uranium and non-energy-producing products</t>
   </si>
   <si>
-    <t>Vermont</t>
+    <t>https://www.nrel.gov/docs/fy22osti/80694.pdf</t>
+  </si>
+  <si>
+    <t>U.S. Solar Photovoltaic System Cost Benchmark: Q1 2021</t>
+  </si>
+  <si>
+    <t>Figure 24</t>
+  </si>
+  <si>
+    <t>EPC</t>
+  </si>
+  <si>
+    <t>Developer overhead</t>
+  </si>
+  <si>
+    <t>contingency</t>
+  </si>
+  <si>
+    <t>transmission line</t>
+  </si>
+  <si>
+    <t>interconnection fee</t>
+  </si>
+  <si>
+    <t>permitting fee</t>
+  </si>
+  <si>
+    <t>sale tax</t>
+  </si>
+  <si>
+    <t>epc overhead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">install labor </t>
+  </si>
+  <si>
+    <t>electrical bos</t>
+  </si>
+  <si>
+    <t>structural bos</t>
+  </si>
+  <si>
+    <t>bidirectional inverter</t>
+  </si>
+  <si>
+    <t>solar inverter</t>
+  </si>
+  <si>
+    <t>lithiomion battery</t>
+  </si>
+  <si>
+    <t>pv module</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
   </si>
 </sst>
 </file>
@@ -1512,7 +1565,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,8 +1595,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1902,6 +1967,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1909,7 +1983,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2132,7 +2206,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2157,6 +2230,32 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="7" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2175,6 +2274,97 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>36902</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FE40D4-11F9-B88B-6E11-5FB9FA280360}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect r="62647"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6350" y="400050"/>
+          <a:ext cx="5835650" cy="9580952"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414867</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>317664</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51719</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81C9186-B8C3-234A-1954-30AAF8B72543}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect l="80972"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5901267" y="374650"/>
+          <a:ext cx="2950797" cy="9805319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2442,43 +2632,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="61.85546875" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" customWidth="1"/>
-    <col min="4" max="4" width="65.7109375" customWidth="1"/>
-    <col min="5" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.42578125" customWidth="1"/>
+    <col min="2" max="2" width="61.81640625" customWidth="1"/>
+    <col min="3" max="3" width="4.6328125" customWidth="1"/>
+    <col min="4" max="4" width="65.7265625" customWidth="1"/>
+    <col min="5" max="5" width="5.7265625" customWidth="1"/>
+    <col min="6" max="6" width="63.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
-        <v>428</v>
-      </c>
-      <c r="B1" t="s">
-        <v>452</v>
-      </c>
-      <c r="C1" s="124">
-        <v>44336</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>215</v>
       </c>
       <c r="B3" s="82" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D3" s="82" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F3" s="82" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>216</v>
       </c>
@@ -2486,12 +2672,12 @@
         <v>216</v>
       </c>
       <c r="F4" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B5" s="83">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="D5" s="83">
         <v>2016</v>
@@ -2500,20 +2686,20 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D6" t="s">
         <v>217</v>
       </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>220</v>
       </c>
-      <c r="F6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B7" s="68" t="s">
-        <v>218</v>
+        <v>449</v>
       </c>
       <c r="D7" s="68" t="s">
         <v>15</v>
@@ -2522,29 +2708,29 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
-        <v>219</v>
+        <v>451</v>
       </c>
       <c r="D8" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F8" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B10" s="82" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D10" s="82" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>216</v>
       </c>
@@ -2555,7 +2741,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B12" s="83">
         <v>2019</v>
       </c>
@@ -2566,20 +2752,20 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B14" s="68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D14" s="68" t="s">
         <v>42</v>
@@ -2588,40 +2774,40 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D15" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F15" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="82" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D17" s="82" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F17" s="82" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>216</v>
       </c>
       <c r="D18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="F18" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B19" s="83">
         <v>2016</v>
       </c>
@@ -2632,20 +2818,20 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="20" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B20" s="115" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C20" s="116"/>
       <c r="D20" s="115" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="E20" s="116"/>
       <c r="F20" s="115" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="117" t="s">
         <v>114</v>
       </c>
@@ -2655,32 +2841,32 @@
       </c>
       <c r="E21" s="116"/>
       <c r="F21" s="117" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D22" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F22" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B24" s="82" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D24" s="82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F24" s="82" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>216</v>
       </c>
@@ -2691,7 +2877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B26" s="83">
         <v>2016</v>
       </c>
@@ -2702,88 +2888,87 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D27" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F27" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B28" s="68" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D28" s="68" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F28" s="68" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D29" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A33" s="74" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D14" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="F14" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="B21" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="F28" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="F21" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="B28" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D21" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D28" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D14" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="F14" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B21" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F28" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B14" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="F21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B28" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D21" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2797,19 +2982,19 @@
       <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="77.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.7265625" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" s="74" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="74" t="s">
         <v>194</v>
       </c>
@@ -2817,7 +3002,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>123</v>
       </c>
@@ -2825,31 +3010,31 @@
         <v>163</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>430</v>
+      </c>
+      <c r="B3" t="s">
         <v>433</v>
       </c>
-      <c r="B3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -2857,7 +3042,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>125</v>
       </c>
@@ -2865,7 +3050,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>126</v>
       </c>
@@ -2873,7 +3058,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>127</v>
       </c>
@@ -2881,7 +3066,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2889,7 +3074,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>129</v>
       </c>
@@ -2897,23 +3082,23 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B12" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>130</v>
       </c>
@@ -2921,39 +3106,39 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>441</v>
+      </c>
+      <c r="B15" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>442</v>
+      </c>
+      <c r="B16" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>443</v>
+      </c>
+      <c r="B17" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>444</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B18" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>445</v>
-      </c>
-      <c r="B16" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>446</v>
-      </c>
-      <c r="B17" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>447</v>
-      </c>
-      <c r="B18" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>131</v>
       </c>
@@ -2961,7 +3146,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>132</v>
       </c>
@@ -2969,7 +3154,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>133</v>
       </c>
@@ -2977,7 +3162,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>134</v>
       </c>
@@ -2985,7 +3170,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>135</v>
       </c>
@@ -2993,7 +3178,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -3001,7 +3186,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>137</v>
       </c>
@@ -3009,31 +3194,31 @@
         <v>178</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B26" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B27" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="B28" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>138</v>
       </c>
@@ -3041,7 +3226,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>139</v>
       </c>
@@ -3049,7 +3234,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>140</v>
       </c>
@@ -3057,7 +3242,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>141</v>
       </c>
@@ -3065,7 +3250,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>142</v>
       </c>
@@ -3073,7 +3258,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>143</v>
       </c>
@@ -3081,7 +3266,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>144</v>
       </c>
@@ -3089,7 +3274,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>145</v>
       </c>
@@ -3097,7 +3282,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -3105,7 +3290,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>147</v>
       </c>
@@ -3113,7 +3298,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>148</v>
       </c>
@@ -3121,7 +3306,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>149</v>
       </c>
@@ -3129,7 +3314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>150</v>
       </c>
@@ -3137,7 +3322,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>151</v>
       </c>
@@ -3145,7 +3330,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>152</v>
       </c>
@@ -3162,31 +3347,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F381"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D381" sqref="D381"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="65.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="48.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.42578125" customWidth="1"/>
+    <col min="1" max="1" width="65.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="48.6328125" customWidth="1"/>
+    <col min="6" max="6" width="60.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
-      <c r="F1" s="131"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -3206,7 +3391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>6</v>
       </c>
@@ -3218,12 +3403,13 @@
       <c r="E3" s="21"/>
       <c r="F3" s="6"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B4" s="57">
-        <v>0.41228070175438591</v>
+      <c r="B4" s="140">
+        <f>graphs_nrel!U5</f>
+        <v>0.39285714285714285</v>
       </c>
       <c r="C4" s="78" t="str">
         <f>'OECD Mapping'!A20</f>
@@ -3240,12 +3426,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B5" s="57">
-        <v>0.13157894736842105</v>
+      <c r="B5" s="140">
+        <f>graphs_nrel!U6</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C5" s="79" t="str">
         <f>'OECD Mapping'!A21</f>
@@ -3262,12 +3449,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B6" s="57">
-        <v>0.11403508771929824</v>
+      <c r="B6" s="140">
+        <f>graphs_nrel!U7</f>
+        <v>8.3333333333333329E-2</v>
       </c>
       <c r="C6" s="78" t="str">
         <f>'OECD Mapping'!A21</f>
@@ -3284,12 +3472,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="57">
-        <v>7.0175438596491224E-2</v>
+      <c r="B7" s="140">
+        <f>graphs_nrel!U8</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="C7" s="78" t="str">
         <f>'OECD Mapping'!A29</f>
@@ -3306,12 +3495,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B8" s="57">
-        <v>8.771929824561403E-2</v>
+      <c r="B8" s="140">
+        <f>graphs_nrel!U9</f>
+        <v>0.13095238095238096</v>
       </c>
       <c r="C8" s="78" t="str">
         <f>'OECD Mapping'!A29</f>
@@ -3328,12 +3518,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B9" s="57">
-        <v>5.2631578947368418E-2</v>
+      <c r="B9" s="140">
+        <f>graphs_nrel!U10</f>
+        <v>5.9523809523809521E-2</v>
       </c>
       <c r="C9" s="78" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3350,12 +3541,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B10" s="57">
-        <v>4.3859649122807015E-2</v>
+      <c r="B10" s="140">
+        <f>graphs_nrel!U11</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C10" s="78" t="str">
         <f>'OECD Mapping'!A39</f>
@@ -3372,12 +3564,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B11" s="57">
-        <v>1.7543859649122806E-2</v>
+      <c r="B11" s="140">
+        <f>graphs_nrel!U12</f>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="C11" s="78" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3394,12 +3587,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="57">
-        <v>2.6315789473684209E-2</v>
+      <c r="B12" s="140">
+        <f>graphs_nrel!U13</f>
+        <v>2.3809523809523808E-2</v>
       </c>
       <c r="C12" s="78" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3416,12 +3610,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="60">
-        <v>4.3859649122807015E-2</v>
+      <c r="B13" s="140">
+        <f>graphs_nrel!U14</f>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="C13" s="80" t="str">
         <f>'OECD Mapping'!A38</f>
@@ -3438,28 +3633,29 @@
         <v>162</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="141"/>
       <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
+      <c r="D14" s="137"/>
       <c r="E14" s="13"/>
       <c r="F14" s="14"/>
     </row>
-    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" s="76" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B15" s="15">
-        <v>0.35350724637681297</v>
+        <v>258</v>
+      </c>
+      <c r="B15" s="142">
+        <f>graphs_nrel!R23</f>
+        <v>0.53533333333333433</v>
       </c>
       <c r="C15" s="8" t="str">
         <f>'OECD Mapping'!A29</f>
         <v>D41T43: Construction</v>
       </c>
-      <c r="D15" s="8" t="str">
+      <c r="D15" s="138" t="str">
         <f>'OECD Mapping'!B29</f>
         <v>ISIC 41T43</v>
       </c>
@@ -3470,18 +3666,19 @@
         <v>114</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="91" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" s="91" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="B16" s="18">
-        <v>0.64649275362318703</v>
+        <v>259</v>
+      </c>
+      <c r="B16" s="142">
+        <f>graphs_nrel!R24</f>
+        <v>0.46466666666666567</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>'OECD Mapping'!A20</f>
         <v>D26: Computer, electronic and optical products</v>
       </c>
-      <c r="D16" s="9" t="str">
+      <c r="D16" s="139" t="str">
         <f>'OECD Mapping'!B20</f>
         <v>ISIC 26</v>
       </c>
@@ -3492,18 +3689,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="125" t="s">
+    <row r="17" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="124" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="126"/>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="128"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="127"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" s="96" t="s">
         <v>1</v>
       </c>
@@ -3523,7 +3720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3535,9 +3732,9 @@
       <c r="E20" s="21"/>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" s="15"/>
       <c r="C21" s="21"/>
@@ -3545,9 +3742,9 @@
       <c r="E21" s="94"/>
       <c r="F21" s="58"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="20" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B22" s="15">
         <v>0.42238735529675886</v>
@@ -3561,13 +3758,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E22" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F22" s="16"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="20" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="B23" s="15">
         <v>9.8886671808605733E-2</v>
@@ -3581,13 +3778,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E23" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F23" s="16"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="20" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B24" s="15">
         <v>0.10948167235952777</v>
@@ -3601,13 +3798,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E24" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F24" s="16"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B25" s="15">
         <v>7.5577670596577259E-2</v>
@@ -3621,13 +3818,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E25" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F25" s="16"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="20" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B26" s="15">
         <v>0.70633337006146968</v>
@@ -3637,7 +3834,7 @@
       <c r="E26" s="94"/>
       <c r="F26" s="16"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" s="20" t="s">
         <v>118</v>
       </c>
@@ -3647,9 +3844,9 @@
       <c r="E27" s="94"/>
       <c r="F27" s="16"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="21"/>
@@ -3657,9 +3854,9 @@
       <c r="E28" s="94"/>
       <c r="F28" s="16"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="20" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B29" s="15">
         <v>0.10206517334414185</v>
@@ -3673,13 +3870,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E29" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F29" s="16"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="20" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B30" s="15">
         <v>1.1545687086842617E-2</v>
@@ -3693,13 +3890,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E30" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F30" s="16"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B31" s="15">
         <v>1.2169934344764067E-2</v>
@@ -3713,13 +3910,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E31" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F31" s="16"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B32" s="95">
         <v>2.2230409954455552E-2</v>
@@ -3733,13 +3930,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E32" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F32" s="6"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="20" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B33" s="15">
         <v>0.14801120473020407</v>
@@ -3749,9 +3946,9 @@
       <c r="E33" s="94"/>
       <c r="F33" s="16"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="20" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="8"/>
@@ -3759,9 +3956,9 @@
       <c r="E34" s="94"/>
       <c r="F34" s="16"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B35" s="15">
         <v>7.2733069481779617E-3</v>
@@ -3775,13 +3972,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E35" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F35" s="6"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="B36" s="15">
         <v>8.238052356697197E-3</v>
@@ -3795,13 +3992,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E36" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F36" s="6"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="20" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B37" s="15">
         <v>1.2005323624779114E-2</v>
@@ -3815,13 +4012,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E37" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F37" s="6"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B38" s="15">
         <v>6.2295846331787133E-3</v>
@@ -3835,13 +4032,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E38" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F38" s="6"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B39" s="15">
         <v>3.6113133534920093E-2</v>
@@ -3855,13 +4052,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E39" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F39" s="6"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B40" s="15">
         <v>6.9859401097753071E-2</v>
@@ -3871,9 +4068,9 @@
       <c r="E40" s="21"/>
       <c r="F40" s="6"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B41" s="15"/>
       <c r="C41" s="21"/>
@@ -3881,9 +4078,9 @@
       <c r="E41" s="21"/>
       <c r="F41" s="6"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B42" s="15"/>
       <c r="C42" s="21"/>
@@ -3891,9 +4088,9 @@
       <c r="E42" s="21"/>
       <c r="F42" s="6"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B43" s="15">
         <v>7.014549101207153E-3</v>
@@ -3907,13 +4104,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E43" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F43" s="6"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B44" s="15">
         <v>2.1486946185092109E-3</v>
@@ -3927,13 +4124,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E44" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F44" s="6"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B45" s="15">
         <v>9.5450455413712103E-3</v>
@@ -3947,13 +4144,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E45" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F45" s="6"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B46" s="15">
         <v>5.202049820047309E-3</v>
@@ -3967,13 +4164,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E46" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F46" s="6"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B47" s="15">
         <v>0</v>
@@ -3987,13 +4184,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E47" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F47" s="6"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B48" s="15">
         <v>2.4339866130496596E-3</v>
@@ -4007,13 +4204,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E48" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F48" s="6"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="20" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B49" s="15">
         <v>2.6344325694184541E-2</v>
@@ -4023,9 +4220,9 @@
       <c r="E49" s="21"/>
       <c r="F49" s="6"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B50" s="15">
         <v>0.24421493152214169</v>
@@ -4035,9 +4232,9 @@
       <c r="E50" s="21"/>
       <c r="F50" s="6"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="20" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B51" s="15">
         <v>0.95054830158361137</v>
@@ -4047,9 +4244,9 @@
       <c r="E51" s="21"/>
       <c r="F51" s="6"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B52" s="15">
         <v>4.945169841638862E-2</v>
@@ -4063,11 +4260,11 @@
         <v>ISIC 84</v>
       </c>
       <c r="E52" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F52" s="6"/>
     </row>
-    <row r="53" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="24" t="s">
         <v>11</v>
       </c>
@@ -4079,7 +4276,7 @@
       <c r="E53" s="25"/>
       <c r="F53" s="10"/>
     </row>
-    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" s="92" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11" t="s">
         <v>8</v>
       </c>
@@ -4089,7 +4286,7 @@
       <c r="E54" s="13"/>
       <c r="F54" s="14"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="20" t="s">
         <v>65</v>
       </c>
@@ -4099,9 +4296,9 @@
       <c r="E55" s="21"/>
       <c r="F55" s="6"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B56" s="21"/>
       <c r="C56" s="21"/>
@@ -4109,9 +4306,9 @@
       <c r="E56" s="21"/>
       <c r="F56" s="6"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="20" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B57" s="15">
         <v>7.8764241372455399E-2</v>
@@ -4125,13 +4322,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E57" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F57" s="6"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="20" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B58" s="15">
         <v>7.4680169597587352E-3</v>
@@ -4145,13 +4342,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E58" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F58" s="6"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="20" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B59" s="15">
         <v>1.4002531799547626E-2</v>
@@ -4165,13 +4362,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E59" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F59" s="6"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B60" s="15">
         <v>0.10023479013176176</v>
@@ -4181,7 +4378,7 @@
       <c r="E60" s="21"/>
       <c r="F60" s="6"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="20" t="s">
         <v>105</v>
       </c>
@@ -4191,9 +4388,9 @@
       <c r="E61" s="21"/>
       <c r="F61" s="6"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="20" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B62" s="15">
         <v>2.4556826972294398E-2</v>
@@ -4207,13 +4404,13 @@
         <v>ISIC 45T47</v>
       </c>
       <c r="E62" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F62" s="6"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="20" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B63" s="15">
         <v>9.5771625191948158E-3</v>
@@ -4227,13 +4424,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E63" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F63" s="6"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="20" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B64" s="15">
         <v>4.7885812595974079E-3</v>
@@ -4247,13 +4444,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E64" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F64" s="6"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="20" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B65" s="15">
         <v>1.9154325038389632E-2</v>
@@ -4267,13 +4464,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E65" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F65" s="6"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B66" s="15">
         <v>0.18417620229220796</v>
@@ -4287,13 +4484,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E66" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F66" s="6"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="20" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B67" s="15">
         <v>9.5771625191948158E-3</v>
@@ -4307,13 +4504,13 @@
         <v>ISIC 19</v>
       </c>
       <c r="E67" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F67" s="6"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="20" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B68" s="15">
         <v>6.2251556374766308E-2</v>
@@ -4327,13 +4524,13 @@
         <v>ISIC 45T47</v>
       </c>
       <c r="E68" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F68" s="6"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="20" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B69" s="15">
         <v>0.54552991118951999</v>
@@ -4347,13 +4544,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E69" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F69" s="6"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B70" s="15">
         <v>0.8596117281651654</v>
@@ -4363,7 +4560,7 @@
       <c r="E70" s="21"/>
       <c r="F70" s="6"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="20" t="s">
         <v>50</v>
       </c>
@@ -4379,13 +4576,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E71" s="94" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F71" s="6"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="20" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B72" s="15">
         <v>0</v>
@@ -4395,9 +4592,9 @@
       <c r="E72" s="21"/>
       <c r="F72" s="6"/>
     </row>
-    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="24" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B73" s="18">
         <v>1</v>
@@ -4407,18 +4604,18 @@
       <c r="E73" s="25"/>
       <c r="F73" s="10"/>
     </row>
-    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A75" s="129" t="s">
+    <row r="74" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="75" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A75" s="128" t="s">
         <v>12</v>
       </c>
-      <c r="B75" s="130"/>
-      <c r="C75" s="130"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="132"/>
-      <c r="F75" s="131"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B75" s="129"/>
+      <c r="C75" s="129"/>
+      <c r="D75" s="131"/>
+      <c r="E75" s="131"/>
+      <c r="F75" s="130"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>1</v>
       </c>
@@ -4438,7 +4635,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="5" t="s">
         <v>6</v>
       </c>
@@ -4446,7 +4643,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="7" t="s">
         <v>14</v>
       </c>
@@ -4457,7 +4654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="7" t="s">
         <v>16</v>
       </c>
@@ -4473,13 +4670,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E79" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F79" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="7" t="s">
         <v>17</v>
       </c>
@@ -4495,13 +4692,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E80" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F80" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" s="7" t="s">
         <v>18</v>
       </c>
@@ -4517,13 +4714,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E81" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F81" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="30" t="s">
         <v>19</v>
       </c>
@@ -4538,7 +4735,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
         <v>20</v>
       </c>
@@ -4550,7 +4747,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="7" t="s">
         <v>21</v>
       </c>
@@ -4566,13 +4763,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E84" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F84" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="7" t="s">
         <v>22</v>
       </c>
@@ -4588,13 +4785,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E85" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F85" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="30" t="s">
         <v>23</v>
       </c>
@@ -4609,7 +4806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="30" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="31" t="s">
         <v>25</v>
       </c>
@@ -4636,7 +4833,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="7" t="s">
         <v>26</v>
       </c>
@@ -4652,13 +4849,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E89" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F89" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
         <v>27</v>
       </c>
@@ -4674,13 +4871,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E90" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F90" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="32" t="s">
         <v>28</v>
       </c>
@@ -4696,13 +4893,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E91" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F91" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="7" t="s">
         <v>29</v>
       </c>
@@ -4718,13 +4915,13 @@
         <v>ISIC 20</v>
       </c>
       <c r="E92" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F92" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="7" t="s">
         <v>30</v>
       </c>
@@ -4740,13 +4937,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E93" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F93" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="7" t="s">
         <v>31</v>
       </c>
@@ -4762,13 +4959,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E94" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F94" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" s="7" t="s">
         <v>32</v>
       </c>
@@ -4784,13 +4981,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E95" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F95" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="7" t="s">
         <v>33</v>
       </c>
@@ -4806,13 +5003,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E96" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F96" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" s="30" t="s">
         <v>34</v>
       </c>
@@ -4825,7 +5022,7 @@
       <c r="E97" s="77"/>
       <c r="F97" s="16"/>
     </row>
-    <row r="98" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="33" t="s">
         <v>35</v>
       </c>
@@ -4838,7 +5035,7 @@
       <c r="E98" s="36"/>
       <c r="F98" s="37"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" s="11" t="s">
         <v>8</v>
       </c>
@@ -4848,7 +5045,7 @@
       <c r="E99" s="39"/>
       <c r="F99" s="14"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" s="40" t="s">
         <v>20</v>
       </c>
@@ -4864,13 +5061,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E100" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F100" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" s="40" t="s">
         <v>36</v>
       </c>
@@ -4886,13 +5083,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E101" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F101" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="40" t="s">
         <v>37</v>
       </c>
@@ -4908,13 +5105,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E102" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F102" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="42" t="s">
         <v>35</v>
       </c>
@@ -4927,7 +5124,7 @@
       <c r="E103" s="45"/>
       <c r="F103" s="10"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="11" t="s">
         <v>38</v>
       </c>
@@ -4937,7 +5134,7 @@
       <c r="E104" s="39"/>
       <c r="F104" s="14"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="40" t="s">
         <v>39</v>
       </c>
@@ -4953,13 +5150,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E105" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F105" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" s="40" t="s">
         <v>40</v>
       </c>
@@ -4975,13 +5172,13 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E106" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F106" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A107" s="40" t="s">
         <v>29</v>
       </c>
@@ -4997,13 +5194,13 @@
         <v>ISIC 20</v>
       </c>
       <c r="E107" s="77" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F107" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="42" t="s">
         <v>35</v>
       </c>
@@ -5016,18 +5213,18 @@
       <c r="E108" s="45"/>
       <c r="F108" s="10"/>
     </row>
-    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A110" s="129" t="s">
+    <row r="109" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="110" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A110" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="B110" s="130"/>
-      <c r="C110" s="130"/>
-      <c r="D110" s="132"/>
-      <c r="E110" s="132"/>
-      <c r="F110" s="131"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B110" s="129"/>
+      <c r="C110" s="129"/>
+      <c r="D110" s="131"/>
+      <c r="E110" s="131"/>
+      <c r="F110" s="130"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>1</v>
       </c>
@@ -5047,7 +5244,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="5" t="s">
         <v>6</v>
       </c>
@@ -5059,12 +5256,12 @@
       <c r="E112" s="3"/>
       <c r="F112" s="16"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="7" t="s">
         <v>16</v>
       </c>
@@ -5080,13 +5277,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E114" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F114" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="7" t="s">
         <v>17</v>
       </c>
@@ -5102,13 +5299,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E115" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F115" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="7" t="s">
         <v>18</v>
       </c>
@@ -5124,13 +5321,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E116" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F116" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="7" t="s">
         <v>43</v>
       </c>
@@ -5144,7 +5341,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="7" t="s">
         <v>44</v>
       </c>
@@ -5156,7 +5353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="7" t="s">
         <v>21</v>
       </c>
@@ -5172,13 +5369,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E119" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F119" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="7" t="s">
         <v>45</v>
       </c>
@@ -5194,13 +5391,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E120" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F120" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="7" t="s">
         <v>46</v>
       </c>
@@ -5216,13 +5413,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E121" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F121" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="7" t="s">
         <v>43</v>
       </c>
@@ -5236,7 +5433,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="7" t="s">
         <v>24</v>
       </c>
@@ -5250,7 +5447,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" s="31" t="s">
         <v>25</v>
       </c>
@@ -5262,7 +5459,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" s="7" t="s">
         <v>47</v>
       </c>
@@ -5278,13 +5475,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E125" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F125" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" s="7" t="s">
         <v>27</v>
       </c>
@@ -5300,13 +5497,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E126" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F126" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A127" s="32" t="s">
         <v>28</v>
       </c>
@@ -5322,13 +5519,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E127" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F127" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="7" t="s">
         <v>48</v>
       </c>
@@ -5344,13 +5541,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E128" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F128" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="7" t="s">
         <v>30</v>
       </c>
@@ -5366,13 +5563,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E129" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F129" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="7" t="s">
         <v>33</v>
       </c>
@@ -5388,13 +5585,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E130" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F130" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="7" t="s">
         <v>34</v>
       </c>
@@ -5406,7 +5603,7 @@
       <c r="E131" s="77"/>
       <c r="F131" s="16"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A132" s="31" t="s">
         <v>49</v>
       </c>
@@ -5420,7 +5617,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="49" t="s">
         <v>50</v>
       </c>
@@ -5435,7 +5632,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
         <v>8</v>
       </c>
@@ -5447,7 +5644,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" s="40" t="s">
         <v>20</v>
       </c>
@@ -5463,13 +5660,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E135" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F135" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="40" t="s">
         <v>36</v>
       </c>
@@ -5485,13 +5682,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E136" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F136" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="40" t="s">
         <v>37</v>
       </c>
@@ -5507,13 +5704,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E137" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F137" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="42" t="s">
         <v>35</v>
       </c>
@@ -5528,7 +5725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="11" t="s">
         <v>38</v>
       </c>
@@ -5538,7 +5735,7 @@
       <c r="E139" s="39"/>
       <c r="F139" s="14"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="40" t="s">
         <v>51</v>
       </c>
@@ -5554,13 +5751,13 @@
         <v>ISIC 31T33</v>
       </c>
       <c r="E140" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F140" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="40" t="s">
         <v>40</v>
       </c>
@@ -5576,13 +5773,13 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E141" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F141" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="40" t="s">
         <v>29</v>
       </c>
@@ -5598,13 +5795,13 @@
         <v>ISIC 20</v>
       </c>
       <c r="E142" s="77" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F142" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="42" t="s">
         <v>35</v>
       </c>
@@ -5617,18 +5814,18 @@
       <c r="E143" s="26"/>
       <c r="F143" s="10"/>
     </row>
-    <row r="144" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="145" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A145" s="125" t="s">
+    <row r="144" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="145" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A145" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="B145" s="126"/>
-      <c r="C145" s="126"/>
-      <c r="D145" s="127"/>
-      <c r="E145" s="127"/>
-      <c r="F145" s="128"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145" s="125"/>
+      <c r="C145" s="125"/>
+      <c r="D145" s="126"/>
+      <c r="E145" s="126"/>
+      <c r="F145" s="127"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>1</v>
       </c>
@@ -5648,7 +5845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="5" t="s">
         <v>6</v>
       </c>
@@ -5660,7 +5857,7 @@
       <c r="E147" s="3"/>
       <c r="F147" s="16"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="7" t="s">
         <v>53</v>
       </c>
@@ -5670,7 +5867,7 @@
       <c r="E148" s="22"/>
       <c r="F148" s="6"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="7" t="s">
         <v>54</v>
       </c>
@@ -5689,7 +5886,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
         <v>57</v>
       </c>
@@ -5711,7 +5908,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" s="7" t="s">
         <v>58</v>
       </c>
@@ -5733,7 +5930,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
         <v>59</v>
       </c>
@@ -5755,7 +5952,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" s="7" t="s">
         <v>60</v>
       </c>
@@ -5777,7 +5974,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="7" t="s">
         <v>61</v>
       </c>
@@ -5799,7 +5996,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
         <v>62</v>
       </c>
@@ -5821,7 +6018,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
         <v>63</v>
       </c>
@@ -5843,7 +6040,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="7" t="s">
         <v>64</v>
       </c>
@@ -5865,7 +6062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A158" s="59" t="s">
         <v>11</v>
       </c>
@@ -5879,7 +6076,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" s="11" t="s">
         <v>8</v>
       </c>
@@ -5889,7 +6086,7 @@
       <c r="E159" s="62"/>
       <c r="F159" s="14"/>
     </row>
-    <row r="160" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A160" s="63" t="s">
         <v>65</v>
       </c>
@@ -5911,7 +6108,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="11" t="s">
         <v>38</v>
       </c>
@@ -5921,7 +6118,7 @@
       <c r="E161" s="62"/>
       <c r="F161" s="14"/>
     </row>
-    <row r="162" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A162" s="24" t="s">
         <v>68</v>
       </c>
@@ -5943,18 +6140,18 @@
         <v>70</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="164" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A164" s="125" t="s">
+    <row r="163" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="164" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A164" s="124" t="s">
         <v>71</v>
       </c>
-      <c r="B164" s="126"/>
-      <c r="C164" s="126"/>
-      <c r="D164" s="127"/>
-      <c r="E164" s="127"/>
-      <c r="F164" s="128"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B164" s="125"/>
+      <c r="C164" s="125"/>
+      <c r="D164" s="126"/>
+      <c r="E164" s="126"/>
+      <c r="F164" s="127"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="1" t="s">
         <v>1</v>
       </c>
@@ -5974,7 +6171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="5" t="s">
         <v>6</v>
       </c>
@@ -5986,7 +6183,7 @@
       <c r="E166" s="3"/>
       <c r="F166" s="16"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="65" t="s">
         <v>72</v>
       </c>
@@ -5997,7 +6194,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="7" t="s">
         <v>74</v>
       </c>
@@ -6013,13 +6210,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E168" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F168" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="7" t="s">
         <v>75</v>
       </c>
@@ -6035,13 +6232,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E169" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F169" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="7" t="s">
         <v>76</v>
       </c>
@@ -6055,7 +6252,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="7" t="s">
         <v>77</v>
       </c>
@@ -6067,7 +6264,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
         <v>78</v>
       </c>
@@ -6083,13 +6280,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E172" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F172" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="7" t="s">
         <v>79</v>
       </c>
@@ -6103,7 +6300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="7" t="s">
         <v>80</v>
       </c>
@@ -6115,7 +6312,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" s="7" t="s">
         <v>81</v>
       </c>
@@ -6131,13 +6328,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E175" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F175" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A176" s="7" t="s">
         <v>82</v>
       </c>
@@ -6153,13 +6350,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E176" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F176" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="7" t="s">
         <v>83</v>
       </c>
@@ -6175,13 +6372,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E177" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F177" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="7" t="s">
         <v>84</v>
       </c>
@@ -6197,13 +6394,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E178" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F178" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A179" s="7" t="s">
         <v>85</v>
       </c>
@@ -6219,13 +6416,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E179" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F179" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A180" s="7" t="s">
         <v>86</v>
       </c>
@@ -6241,13 +6438,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E180" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F180" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
         <v>87</v>
       </c>
@@ -6263,13 +6460,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E181" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F181" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="7" t="s">
         <v>88</v>
       </c>
@@ -6283,7 +6480,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="7" t="s">
         <v>89</v>
       </c>
@@ -6295,7 +6492,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="7" t="s">
         <v>78</v>
       </c>
@@ -6311,13 +6508,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E184" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F184" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="7" t="s">
         <v>90</v>
       </c>
@@ -6333,13 +6530,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E185" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F185" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="7" t="s">
         <v>91</v>
       </c>
@@ -6355,13 +6552,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E186" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F186" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A187" s="7" t="s">
         <v>92</v>
       </c>
@@ -6377,13 +6574,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E187" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F187" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A188" s="7" t="s">
         <v>93</v>
       </c>
@@ -6399,13 +6596,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E188" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F188" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="7" t="s">
         <v>94</v>
       </c>
@@ -6421,13 +6618,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E189" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F189" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
         <v>95</v>
       </c>
@@ -6443,13 +6640,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E190" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F190" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="7" t="s">
         <v>96</v>
       </c>
@@ -6465,13 +6662,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E191" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F191" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="7" t="s">
         <v>97</v>
       </c>
@@ -6485,7 +6682,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="7" t="s">
         <v>25</v>
       </c>
@@ -6497,7 +6694,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="7" t="s">
         <v>98</v>
       </c>
@@ -6513,13 +6710,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E194" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F194" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
         <v>99</v>
       </c>
@@ -6535,13 +6732,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E195" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F195" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="7" t="s">
         <v>100</v>
       </c>
@@ -6557,13 +6754,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E196" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F196" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="7" t="s">
         <v>101</v>
       </c>
@@ -6579,13 +6776,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E197" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F197" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="7" t="s">
         <v>102</v>
       </c>
@@ -6601,13 +6798,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E198" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F198" s="68" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="7" t="s">
         <v>34</v>
       </c>
@@ -6621,7 +6818,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
         <v>103</v>
       </c>
@@ -6635,7 +6832,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
         <v>50</v>
       </c>
@@ -6649,7 +6846,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A202" s="59" t="s">
         <v>11</v>
       </c>
@@ -6663,7 +6860,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="11" t="s">
         <v>8</v>
       </c>
@@ -6675,7 +6872,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
         <v>104</v>
       </c>
@@ -6691,13 +6888,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E204" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F204" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="7" t="s">
         <v>105</v>
       </c>
@@ -6709,7 +6906,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
         <v>106</v>
       </c>
@@ -6725,13 +6922,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E206" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F206" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="7" t="s">
         <v>101</v>
       </c>
@@ -6747,13 +6944,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E207" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F207" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
         <v>107</v>
       </c>
@@ -6769,13 +6966,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E208" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F208" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="7" t="s">
         <v>108</v>
       </c>
@@ -6791,13 +6988,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E209" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F209" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="7" t="s">
         <v>109</v>
       </c>
@@ -6813,13 +7010,13 @@
         <v>ISIC 68</v>
       </c>
       <c r="E210" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F210" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
         <v>110</v>
       </c>
@@ -6835,13 +7032,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E211" s="77" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F211" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="7" t="s">
         <v>111</v>
       </c>
@@ -6855,7 +7052,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
         <v>103</v>
       </c>
@@ -6869,7 +7066,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="7" t="s">
         <v>50</v>
       </c>
@@ -6883,7 +7080,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A215" s="59" t="s">
         <v>112</v>
       </c>
@@ -6897,7 +7094,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
         <v>38</v>
       </c>
@@ -6907,9 +7104,9 @@
       <c r="E216" s="62"/>
       <c r="F216" s="14"/>
     </row>
-    <row r="217" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A217" s="100" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B217" s="55">
         <v>1</v>
@@ -6923,24 +7120,24 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E217" s="25" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F217" s="19" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="219" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A219" s="125" t="s">
-        <v>230</v>
-      </c>
-      <c r="B219" s="126"/>
-      <c r="C219" s="126"/>
-      <c r="D219" s="127"/>
-      <c r="E219" s="127"/>
-      <c r="F219" s="128"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="219" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A219" s="124" t="s">
+        <v>227</v>
+      </c>
+      <c r="B219" s="125"/>
+      <c r="C219" s="125"/>
+      <c r="D219" s="126"/>
+      <c r="E219" s="126"/>
+      <c r="F219" s="127"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="1" t="s">
         <v>1</v>
       </c>
@@ -6960,7 +7157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="5" t="s">
         <v>6</v>
       </c>
@@ -6972,7 +7169,7 @@
       <c r="E221" s="3"/>
       <c r="F221" s="16"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="20" t="s">
         <v>113</v>
       </c>
@@ -6994,7 +7191,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="20" t="s">
         <v>115</v>
       </c>
@@ -7016,7 +7213,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="20" t="s">
         <v>116</v>
       </c>
@@ -7038,7 +7235,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A225" s="20" t="s">
         <v>117</v>
       </c>
@@ -7060,7 +7257,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A226" s="20" t="s">
         <v>118</v>
       </c>
@@ -7082,7 +7279,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A227" s="70" t="s">
         <v>119</v>
       </c>
@@ -7104,7 +7301,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A228" s="11" t="s">
         <v>8</v>
       </c>
@@ -7114,7 +7311,7 @@
       <c r="E228" s="62"/>
       <c r="F228" s="54"/>
     </row>
-    <row r="229" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A229" s="24" t="s">
         <v>65</v>
       </c>
@@ -7136,7 +7333,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="11" t="s">
         <v>38</v>
       </c>
@@ -7146,7 +7343,7 @@
       <c r="E230" s="62"/>
       <c r="F230" s="14"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="7" t="s">
         <v>120</v>
       </c>
@@ -7168,7 +7365,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="7" t="s">
         <v>121</v>
       </c>
@@ -7190,7 +7387,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A233" s="17" t="s">
         <v>122</v>
       </c>
@@ -7212,18 +7409,18 @@
         <v>114</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="235" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A235" s="125" t="s">
-        <v>231</v>
-      </c>
-      <c r="B235" s="126"/>
-      <c r="C235" s="126"/>
-      <c r="D235" s="127"/>
-      <c r="E235" s="127"/>
-      <c r="F235" s="128"/>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="235" spans="1:6" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="A235" s="124" t="s">
+        <v>228</v>
+      </c>
+      <c r="B235" s="125"/>
+      <c r="C235" s="125"/>
+      <c r="D235" s="126"/>
+      <c r="E235" s="126"/>
+      <c r="F235" s="127"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A236" s="1" t="s">
         <v>1</v>
       </c>
@@ -7243,7 +7440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="5" t="s">
         <v>6</v>
       </c>
@@ -7255,9 +7452,9 @@
       <c r="E237" s="2"/>
       <c r="F237" s="16"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="87" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B238" s="21"/>
       <c r="C238" s="21"/>
@@ -7265,9 +7462,9 @@
       <c r="E238" s="21"/>
       <c r="F238" s="58"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="87" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B239" s="15">
         <v>2.6684437410237714E-2</v>
@@ -7281,15 +7478,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E239" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F239" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A240" s="87" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B240" s="15">
         <v>2.6684437410237714E-2</v>
@@ -7299,9 +7496,9 @@
       <c r="E240" s="21"/>
       <c r="F240" s="16"/>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A241" s="87" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B241" s="15"/>
       <c r="C241" s="21"/>
@@ -7309,9 +7506,9 @@
       <c r="E241" s="21"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A242" s="87" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B242" s="15">
         <v>7.5284333648528773E-3</v>
@@ -7325,15 +7522,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E242" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F242" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A243" s="87" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B243" s="15">
         <v>8.9987349448319778E-2</v>
@@ -7347,15 +7544,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E243" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F243" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A244" s="40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B244" s="15">
         <v>5.3165010087191204E-3</v>
@@ -7369,15 +7566,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E244" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F244" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="87" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B245" s="15">
         <v>2.9357977769593591E-2</v>
@@ -7391,15 +7588,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E245" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F245" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="40" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B246" s="15">
         <v>1.1713485103844592E-2</v>
@@ -7413,15 +7610,15 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E246" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F246" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B247" s="15">
         <v>0.14390374669532996</v>
@@ -7431,7 +7628,7 @@
       <c r="E247" s="21"/>
       <c r="F247" s="16"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="7" t="s">
         <v>76</v>
       </c>
@@ -7443,9 +7640,9 @@
       <c r="E248" s="21"/>
       <c r="F248" s="16"/>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B249" s="15"/>
       <c r="C249" s="21"/>
@@ -7453,9 +7650,9 @@
       <c r="E249" s="21"/>
       <c r="F249" s="16"/>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A250" s="87" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B250" s="15">
         <v>5.9171738835744038E-2</v>
@@ -7469,15 +7666,15 @@
         <v>ISIC 231</v>
       </c>
       <c r="E250" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F250" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A251" s="87" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B251" s="15">
         <v>0.18761234551146613</v>
@@ -7491,15 +7688,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E251" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F251" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A252" s="87" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B252" s="15">
         <v>5.4478481440208094E-2</v>
@@ -7513,15 +7710,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E252" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F252" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="87" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B253" s="15">
         <v>4.0472974263582373E-2</v>
@@ -7535,15 +7732,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E253" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F253" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="87" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B254" s="15">
         <v>3.3202284168667398E-2</v>
@@ -7557,15 +7754,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E254" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F254" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B255" s="15">
         <v>0.11718436104510066</v>
@@ -7579,15 +7776,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E255" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F255" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="87" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B256" s="15">
         <v>7.9186887114255214E-2</v>
@@ -7601,15 +7798,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E256" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F256" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B257" s="15">
         <v>2.6662594760242975E-3</v>
@@ -7623,15 +7820,15 @@
         <v>ISIC 27</v>
       </c>
       <c r="E257" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F257" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="87" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B258" s="15">
         <v>2.3065838394442859E-3</v>
@@ -7645,15 +7842,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E258" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F258" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="87" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B259" s="15">
         <v>3.5527798304773789E-2</v>
@@ -7667,15 +7864,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E259" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F259" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="87" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B260" s="15">
         <v>5.1620006644230103E-2</v>
@@ -7689,15 +7886,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E260" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F260" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B261" s="15">
         <v>1.7845445045700584E-2</v>
@@ -7711,15 +7908,15 @@
         <v>ISIC 27</v>
       </c>
       <c r="E261" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F261" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A262" s="87" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B262" s="15">
         <v>2.0360262148428034E-2</v>
@@ -7733,13 +7930,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E262" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F262" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A263" s="87" t="s">
         <v>76</v>
       </c>
@@ -7751,7 +7948,7 @@
       <c r="E263" s="21"/>
       <c r="F263" s="6"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="87" t="s">
         <v>25</v>
       </c>
@@ -7761,9 +7958,9 @@
       <c r="E264" s="21"/>
       <c r="F264" s="6"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="87" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B265" s="15">
         <v>0</v>
@@ -7777,15 +7974,15 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E265" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F265" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="87" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="B266" s="15">
         <v>0.10362016195350927</v>
@@ -7799,15 +7996,15 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E266" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F266" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="87" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B267" s="15">
         <v>2.4156226103298116E-2</v>
@@ -7821,13 +8018,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E267" s="21" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F267" s="58" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A268" s="87" t="s">
         <v>76</v>
       </c>
@@ -7839,7 +8036,7 @@
       <c r="E268" s="21"/>
       <c r="F268" s="6"/>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A269" s="87" t="s">
         <v>103</v>
       </c>
@@ -7851,9 +8048,9 @@
       <c r="E269" s="21"/>
       <c r="F269" s="6"/>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A270" s="87" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B270" s="21"/>
       <c r="C270" s="21"/>
@@ -7861,7 +8058,7 @@
       <c r="E270" s="21"/>
       <c r="F270" s="6"/>
     </row>
-    <row r="271" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A271" s="89" t="s">
         <v>11</v>
       </c>
@@ -7871,7 +8068,7 @@
       <c r="E271" s="25"/>
       <c r="F271" s="10"/>
     </row>
-    <row r="272" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A272" s="102" t="s">
         <v>8</v>
       </c>
@@ -7881,9 +8078,9 @@
       <c r="E272" s="103"/>
       <c r="F272" s="104"/>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A273" s="105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B273" s="62"/>
       <c r="C273" s="62"/>
@@ -7891,9 +8088,9 @@
       <c r="E273" s="62"/>
       <c r="F273" s="14"/>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A274" s="87" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B274" s="15">
         <v>0.10957138163680816</v>
@@ -7907,15 +8104,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E274" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F274" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A275" s="87" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B275" s="15">
         <v>0.10103758199684273</v>
@@ -7929,15 +8126,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E275" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F275" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A276" s="87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B276" s="15">
         <v>6.9437413759806402E-2</v>
@@ -7951,15 +8148,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E276" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F276" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A277" s="87" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B277" s="15">
         <v>9.465351814404413E-2</v>
@@ -7973,15 +8170,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E277" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F277" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A278" s="87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B278" s="15">
         <v>0.37469989553750138</v>
@@ -7991,7 +8188,7 @@
       <c r="E278" s="21"/>
       <c r="F278" s="6"/>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A279" s="87" t="s">
         <v>105</v>
       </c>
@@ -8001,9 +8198,9 @@
       <c r="E279" s="21"/>
       <c r="F279" s="6"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="87" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B280" s="15">
         <v>6.6213883181614627E-2</v>
@@ -8017,13 +8214,13 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E280" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F280" s="6"/>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A281" s="87" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B281" s="15">
         <v>1.7192251878116429E-2</v>
@@ -8037,15 +8234,15 @@
         <v>ISIC 20</v>
       </c>
       <c r="E281" s="21" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F281" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A282" s="87" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B282" s="15">
         <v>7.7661551587353536E-2</v>
@@ -8059,15 +8256,15 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E282" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F282" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B283" s="15">
         <v>4.145585480458365E-2</v>
@@ -8081,15 +8278,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E283" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F283" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="87" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B284" s="15">
         <v>0</v>
@@ -8103,15 +8300,15 @@
         <v>ISIC 19</v>
       </c>
       <c r="E284" s="120" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F284" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="87" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B285" s="15">
         <v>0.42277656301083044</v>
@@ -8125,15 +8322,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E285" s="120" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F285" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="87" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B286" s="15">
         <v>0</v>
@@ -8147,15 +8344,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E286" s="120" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F286" s="68" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="87" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B287" s="15">
         <v>0.62530010446249862</v>
@@ -8165,7 +8362,7 @@
       <c r="E287" s="21"/>
       <c r="F287" s="6"/>
     </row>
-    <row r="288" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A288" s="89" t="s">
         <v>11</v>
       </c>
@@ -8177,17 +8374,17 @@
       <c r="E288" s="25"/>
       <c r="F288" s="10"/>
     </row>
-    <row r="289" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A289" s="125" t="s">
-        <v>341</v>
-      </c>
-      <c r="B289" s="126"/>
-      <c r="C289" s="126"/>
-      <c r="D289" s="127"/>
-      <c r="E289" s="127"/>
-      <c r="F289" s="128"/>
-    </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A289" s="124" t="s">
+        <v>338</v>
+      </c>
+      <c r="B289" s="125"/>
+      <c r="C289" s="125"/>
+      <c r="D289" s="126"/>
+      <c r="E289" s="126"/>
+      <c r="F289" s="127"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A290" s="96" t="s">
         <v>1</v>
       </c>
@@ -8207,7 +8404,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A291" s="5" t="s">
         <v>6</v>
       </c>
@@ -8219,9 +8416,9 @@
       <c r="E291" s="2"/>
       <c r="F291" s="16"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="90" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B292" s="21"/>
       <c r="C292" s="21"/>
@@ -8229,9 +8426,9 @@
       <c r="E292" s="21"/>
       <c r="F292" s="6"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="87" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B293" s="15">
         <v>5.8784250379308753E-4</v>
@@ -8245,15 +8442,15 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E293" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F293" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="87" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B294" s="15">
         <v>2.2103717917625509E-2</v>
@@ -8267,15 +8464,15 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E294" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F294" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A295" s="87" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B295" s="15">
         <v>3.6648621011477336E-4</v>
@@ -8289,15 +8486,15 @@
         <v>ISIC 239</v>
       </c>
       <c r="E295" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F295" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A296" s="87" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B296" s="15">
         <v>2.3001470420079329E-3</v>
@@ -8311,15 +8508,15 @@
         <v>ISIC 19</v>
       </c>
       <c r="E296" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F296" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="87" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B297" s="15">
         <v>1.5283905098620277E-3</v>
@@ -8333,15 +8530,15 @@
         <v>ISIC 25</v>
       </c>
       <c r="E297" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F297" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="87" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B298" s="15">
         <v>4.8507419772996917E-4</v>
@@ -8355,15 +8552,15 @@
         <v>ISIC 20</v>
       </c>
       <c r="E298" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F298" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="87" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B299" s="15">
         <v>5.827473972334983E-3</v>
@@ -8377,15 +8574,15 @@
         <v>ISIC 07T08</v>
       </c>
       <c r="E299" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F299" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="87" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B300" s="15">
         <v>6.8886743694495669E-4</v>
@@ -8399,15 +8596,15 @@
         <v>ISIC 55T56</v>
       </c>
       <c r="E300" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F300" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A301" s="87" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B301" s="15">
         <v>2.9735306400568507E-3</v>
@@ -8421,15 +8618,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E301" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F301" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A302" s="90" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B302" s="15"/>
       <c r="C302" s="15"/>
@@ -8437,9 +8634,9 @@
       <c r="E302" s="21"/>
       <c r="F302" s="6"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A303" s="87" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B303" s="15">
         <v>0.50174694509567619</v>
@@ -8453,15 +8650,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E303" s="21" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F303" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A304" s="87" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B304" s="15">
         <v>0.46056987354185763</v>
@@ -8475,15 +8672,15 @@
         <v>ISIC 28</v>
       </c>
       <c r="E304" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F304" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="87" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B305" s="15">
         <v>8.2165093199600733E-4</v>
@@ -8497,15 +8694,15 @@
         <v>ISIC 84</v>
       </c>
       <c r="E305" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F305" s="16" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A306" s="88" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B306" s="69">
         <v>0</v>
@@ -8519,13 +8716,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E306" s="21" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F306" s="37" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="11" t="s">
         <v>8</v>
       </c>
@@ -8535,7 +8732,7 @@
       <c r="E307" s="62"/>
       <c r="F307" s="14"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="111" t="s">
         <v>65</v>
       </c>
@@ -8551,15 +8748,15 @@
         <v>ISIC 351</v>
       </c>
       <c r="E308" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F308" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="111" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B309" s="15">
         <v>0.58345780433159067</v>
@@ -8573,15 +8770,15 @@
         <v>ISIC 31T33</v>
       </c>
       <c r="E309" s="120" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F309" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="111" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B310" s="15">
         <v>0.10296863330843913</v>
@@ -8595,15 +8792,15 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E310" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F310" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A311" s="112" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B311" s="69">
         <v>8.4858103061986545E-2</v>
@@ -8617,13 +8814,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E311" s="61" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F311" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="11" t="s">
         <v>38</v>
       </c>
@@ -8633,9 +8830,9 @@
       <c r="E312" s="62"/>
       <c r="F312" s="14"/>
     </row>
-    <row r="313" spans="1:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A313" s="114" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B313" s="118">
         <v>1</v>
@@ -8649,28 +8846,28 @@
         <v>ISIC 36T39</v>
       </c>
       <c r="E313" s="25" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F313" s="68" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B314" s="85"/>
       <c r="C314" s="84"/>
       <c r="D314" s="107"/>
     </row>
-    <row r="315" spans="1:6" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A315" s="125" t="s">
-        <v>369</v>
-      </c>
-      <c r="B315" s="126"/>
-      <c r="C315" s="126"/>
-      <c r="D315" s="127"/>
-      <c r="E315" s="127"/>
-      <c r="F315" s="128"/>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" ht="19" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A315" s="124" t="s">
+        <v>366</v>
+      </c>
+      <c r="B315" s="125"/>
+      <c r="C315" s="125"/>
+      <c r="D315" s="126"/>
+      <c r="E315" s="126"/>
+      <c r="F315" s="127"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A316" s="96" t="s">
         <v>1</v>
       </c>
@@ -8690,7 +8887,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A317" s="5" t="s">
         <v>6</v>
       </c>
@@ -8702,9 +8899,9 @@
       <c r="E317" s="21"/>
       <c r="F317" s="6"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="20" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B318" s="21"/>
       <c r="C318" s="21"/>
@@ -8712,9 +8909,9 @@
       <c r="E318" s="94"/>
       <c r="F318" s="16"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="20" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B319" s="15">
         <v>3.2241374243532309E-2</v>
@@ -8728,13 +8925,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E319" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F319" s="16"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="20" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B320" s="15">
         <v>1.6038016902321799E-2</v>
@@ -8748,13 +8945,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E320" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F320" s="16"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="20" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B321" s="15">
         <v>1.2400528580860307E-2</v>
@@ -8768,13 +8965,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E321" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F321" s="16"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="20" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B322" s="15">
         <v>0</v>
@@ -8788,13 +8985,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E322" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F322" s="16"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="20" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B323" s="15">
         <v>0</v>
@@ -8808,13 +9005,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E323" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F323" s="16"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B324" s="15">
         <v>6.0679919726714417E-2</v>
@@ -8824,9 +9021,9 @@
       <c r="E324" s="94"/>
       <c r="F324" s="16"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A325" s="20" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B325" s="15"/>
       <c r="C325" s="21"/>
@@ -8834,9 +9031,9 @@
       <c r="E325" s="94"/>
       <c r="F325" s="16"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A326" s="20" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B326" s="15">
         <v>5.9790282669963217E-3</v>
@@ -8850,13 +9047,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E326" s="123" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F326" s="16"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A327" s="20" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B327" s="15">
         <v>2.0458601035032161E-2</v>
@@ -8870,13 +9067,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E327" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F327" s="16"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A328" s="20" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B328" s="15">
         <v>1.3717633441647122E-2</v>
@@ -8890,13 +9087,13 @@
         <v>ISIC 25</v>
       </c>
       <c r="E328" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F328" s="6"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="20" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B329" s="95">
         <v>4.9670766079714648E-3</v>
@@ -8910,13 +9107,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E329" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F329" s="16"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="20" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B330" s="15">
         <v>0.13238799814205607</v>
@@ -8930,13 +9127,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E330" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F330" s="16"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="20" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B331" s="15">
         <v>5.6797062509543479E-2</v>
@@ -8950,13 +9147,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E331" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F331" s="6"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="20" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B332" s="15">
         <v>8.1471472548051413E-2</v>
@@ -8970,13 +9167,13 @@
         <v>ISIC 27</v>
       </c>
       <c r="E332" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F332" s="6"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="20" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B333" s="15">
         <v>0.31577887255129805</v>
@@ -8986,9 +9183,9 @@
       <c r="E333" s="94"/>
       <c r="F333" s="6"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A334" s="20" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B334" s="15"/>
       <c r="C334" s="21"/>
@@ -8996,9 +9193,9 @@
       <c r="E334" s="94"/>
       <c r="F334" s="6"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A335" s="20" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B335" s="15">
         <v>6.2166597276063201E-3</v>
@@ -9012,13 +9209,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E335" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F335" s="6"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A336" s="20" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B336" s="15">
         <v>4.1683133284005254E-3</v>
@@ -9032,13 +9229,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E336" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F336" s="6"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A337" s="20" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B337" s="15">
         <v>4.2334724953147105E-3</v>
@@ -9052,13 +9249,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E337" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F337" s="6"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A338" s="20" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B338" s="15">
         <v>7.206943770706753E-2</v>
@@ -9072,13 +9269,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E338" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F338" s="6"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A339" s="20" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B339" s="15">
         <v>5.6737713489452599E-2</v>
@@ -9092,13 +9289,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E339" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F339" s="6"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A340" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B340" s="15">
         <v>2.5443069457383744E-2</v>
@@ -9112,13 +9309,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E340" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F340" s="6"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A341" s="20" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B341" s="15">
         <v>0.16886866620522542</v>
@@ -9128,9 +9325,9 @@
       <c r="E341" s="94"/>
       <c r="F341" s="6"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="20" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B342" s="15"/>
       <c r="C342" s="21"/>
@@ -9138,9 +9335,9 @@
       <c r="E342" s="94"/>
       <c r="F342" s="6"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="20" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B343" s="15">
         <v>8.7151669566778289E-3</v>
@@ -9154,13 +9351,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E343" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F343" s="6"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="20" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B344" s="15"/>
       <c r="C344" s="21"/>
@@ -9168,9 +9365,9 @@
       <c r="E344" s="94"/>
       <c r="F344" s="6"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="20" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B345" s="15">
         <v>6.067991972671441E-2</v>
@@ -9184,13 +9381,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E345" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F345" s="6"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="20" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B346" s="15">
         <v>1.533150424508801E-2</v>
@@ -9204,13 +9401,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E346" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F346" s="6"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="20" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B347" s="15">
         <v>4.5994538507349268E-3</v>
@@ -9224,13 +9421,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E347" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F347" s="6"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="20" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B348" s="15">
         <v>3.4346170594054541E-3</v>
@@ -9244,13 +9441,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E348" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F348" s="6"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="20" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B349" s="15">
         <v>5.1105001264250743E-2</v>
@@ -9264,13 +9461,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E349" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F349" s="6"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A350" s="20" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B350" s="15">
         <v>0</v>
@@ -9284,13 +9481,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E350" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F350" s="6"/>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A351" s="20" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B351" s="15">
         <v>0.18243254907596901</v>
@@ -9304,13 +9501,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E351" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F351" s="6"/>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A352" s="20" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B352" s="15">
         <v>7.2083450595899117E-3</v>
@@ -9324,13 +9521,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E352" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F352" s="6"/>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A353" s="20" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B353" s="15">
         <v>2.6145500870033485E-2</v>
@@ -9344,13 +9541,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E353" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F353" s="6"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="20" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B354" s="15">
         <v>0.35093689115178595</v>
@@ -9360,9 +9557,9 @@
       <c r="E354" s="94"/>
       <c r="F354" s="6"/>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A355" s="20" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B355" s="15"/>
       <c r="C355" s="21"/>
@@ -9370,9 +9567,9 @@
       <c r="E355" s="94"/>
       <c r="F355" s="6"/>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A356" s="20" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B356" s="15">
         <v>0</v>
@@ -9386,13 +9583,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E356" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F356" s="6"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="20" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B357" s="15">
         <v>0</v>
@@ -9406,13 +9603,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E357" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F357" s="6"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="20" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B358" s="15">
         <v>0</v>
@@ -9426,13 +9623,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E358" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F358" s="6"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="20" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="B359" s="15">
         <v>0</v>
@@ -9446,13 +9643,13 @@
         <v>ISIC 64T66</v>
       </c>
       <c r="E359" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F359" s="6"/>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A360" s="20" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B360" s="15">
         <v>0</v>
@@ -9462,9 +9659,9 @@
       <c r="E360" s="94"/>
       <c r="F360" s="6"/>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A361" s="20" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="B361" s="15">
         <v>9.5020483408298523E-2</v>
@@ -9478,13 +9675,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E361" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F361" s="6"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B362" s="15">
         <v>1</v>
@@ -9494,9 +9691,9 @@
       <c r="E362" s="94"/>
       <c r="F362" s="6"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B363" s="15">
         <v>0</v>
@@ -9510,13 +9707,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E363" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F363" s="6"/>
     </row>
-    <row r="364" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A364" s="70" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B364" s="69">
         <v>1</v>
@@ -9526,7 +9723,7 @@
       <c r="E364" s="99"/>
       <c r="F364" s="75"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
         <v>8</v>
       </c>
@@ -9536,7 +9733,7 @@
       <c r="E365" s="62"/>
       <c r="F365" s="14"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="20" t="s">
         <v>65</v>
       </c>
@@ -9546,9 +9743,9 @@
       <c r="E366" s="21"/>
       <c r="F366" s="6"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B367" s="15">
         <v>6.3182869088423882E-2</v>
@@ -9562,13 +9759,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E367" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F367" s="6"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="20" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B368" s="15">
         <v>0</v>
@@ -9582,13 +9779,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E368" s="94" t="s">
+        <v>408</v>
+      </c>
+      <c r="F368" s="6"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A369" s="20" t="s">
         <v>411</v>
-      </c>
-      <c r="F368" s="6"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="20" t="s">
-        <v>414</v>
       </c>
       <c r="B369" s="15">
         <v>1.1700531406933206E-2</v>
@@ -9602,13 +9799,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E369" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F369" s="6"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="20" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B370" s="15">
         <v>5.6162549668272839E-2</v>
@@ -9622,13 +9819,13 @@
         <v>ISIC 351</v>
       </c>
       <c r="E370" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F370" s="6"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="20" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B371" s="15">
         <v>0.13104595016362994</v>
@@ -9638,7 +9835,7 @@
       <c r="E371" s="21"/>
       <c r="F371" s="6"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="20" t="s">
         <v>105</v>
       </c>
@@ -9648,9 +9845,9 @@
       <c r="E372" s="21"/>
       <c r="F372" s="6"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="20" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B373" s="15">
         <v>0.19943207701162591</v>
@@ -9664,13 +9861,13 @@
         <v>ISIC 49T53</v>
       </c>
       <c r="E373" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F373" s="6"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="20" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B374" s="15">
         <v>9.9716038505812954E-2</v>
@@ -9684,13 +9881,13 @@
         <v>ISIC 69T82</v>
       </c>
       <c r="E374" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F374" s="6"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="B375" s="15">
         <v>4.2735445073919839E-2</v>
@@ -9704,13 +9901,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E375" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F375" s="6"/>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A376" s="20" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="B376" s="15">
         <v>6.4103167610879766E-2</v>
@@ -9724,13 +9921,13 @@
         <v>ISIC 41T43</v>
       </c>
       <c r="E376" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F376" s="6"/>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A377" s="20" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B377" s="15">
         <v>0.46296732163413162</v>
@@ -9744,13 +9941,13 @@
         <v>ISIC 28</v>
       </c>
       <c r="E377" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F377" s="6"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="20" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B378" s="15">
         <v>0.86895404983637015</v>
@@ -9760,9 +9957,9 @@
       <c r="E378" s="21"/>
       <c r="F378" s="6"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="20" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="B379" s="15">
         <v>1</v>
@@ -9772,9 +9969,9 @@
       <c r="E379" s="21"/>
       <c r="F379" s="6"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="20" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B380" s="15">
         <v>0</v>
@@ -9788,13 +9985,13 @@
         <v>ISIC 84</v>
       </c>
       <c r="E380" s="94" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F380" s="6"/>
     </row>
-    <row r="381" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A381" s="24" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B381" s="18">
         <v>1</v>
@@ -9896,6 +10093,350 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72D1499-D3A0-4266-A574-149D619EFB6A}">
+  <dimension ref="A1:W24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T14" sqref="T14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="16" max="16" width="21.1796875" customWidth="1"/>
+    <col min="20" max="20" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="A1" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
+      <c r="F1" s="136"/>
+      <c r="G1" s="136"/>
+      <c r="H1" s="136"/>
+      <c r="I1" s="136"/>
+      <c r="J1" s="136"/>
+      <c r="K1" s="136"/>
+      <c r="L1" s="136"/>
+      <c r="M1" s="136"/>
+      <c r="N1" s="136"/>
+      <c r="O1" s="136"/>
+      <c r="P1" s="136"/>
+      <c r="Q1" s="136"/>
+      <c r="R1" s="136"/>
+      <c r="S1" s="136"/>
+      <c r="T1" s="136"/>
+      <c r="U1" s="136"/>
+      <c r="V1" s="136"/>
+      <c r="W1" s="136"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="T3" s="143" t="s">
+        <v>469</v>
+      </c>
+      <c r="U3" s="144"/>
+      <c r="V3" s="133">
+        <f>SUM(U5:U14)</f>
+        <v>1.0000000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="Q4" t="s">
+        <v>467</v>
+      </c>
+      <c r="R4" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P5" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q5" s="74">
+        <v>4</v>
+      </c>
+      <c r="R5" s="134">
+        <f>Q5/$Q$20</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T5" s="145" t="s">
+        <v>153</v>
+      </c>
+      <c r="U5" s="146">
+        <f>R19</f>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P6" s="74" t="s">
+        <v>453</v>
+      </c>
+      <c r="Q6" s="74">
+        <v>2</v>
+      </c>
+      <c r="R6" s="134">
+        <f t="shared" ref="R6:R19" si="0">Q6/$Q$20</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="T6" s="145" t="s">
+        <v>154</v>
+      </c>
+      <c r="U6" s="146">
+        <f>R17</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P7" s="74" t="s">
+        <v>454</v>
+      </c>
+      <c r="Q7" s="74">
+        <v>2</v>
+      </c>
+      <c r="R7" s="134">
+        <f t="shared" si="0"/>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="T7" s="145" t="s">
+        <v>155</v>
+      </c>
+      <c r="U7" s="146">
+        <f>R14</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P8" t="s">
+        <v>455</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" s="132"/>
+      <c r="T8" s="145" t="s">
+        <v>156</v>
+      </c>
+      <c r="U8" s="146">
+        <f>R15</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P9" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" s="132"/>
+      <c r="T9" s="145" t="s">
+        <v>157</v>
+      </c>
+      <c r="U9" s="146">
+        <f>R13</f>
+        <v>0.13095238095238096</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P10" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10" s="132"/>
+      <c r="T10" s="145" t="s">
+        <v>158</v>
+      </c>
+      <c r="U10" s="146">
+        <f>R12</f>
+        <v>5.9523809523809521E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P11" s="74" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q11" s="74">
+        <v>4</v>
+      </c>
+      <c r="R11" s="134">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T11" s="145" t="s">
+        <v>159</v>
+      </c>
+      <c r="U11" s="146">
+        <f>R11</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P12" s="74" t="s">
+        <v>459</v>
+      </c>
+      <c r="Q12" s="74">
+        <v>5</v>
+      </c>
+      <c r="R12" s="134">
+        <f t="shared" si="0"/>
+        <v>5.9523809523809521E-2</v>
+      </c>
+      <c r="T12" s="145" t="s">
+        <v>160</v>
+      </c>
+      <c r="U12" s="146">
+        <f>R6</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P13" s="74" t="s">
+        <v>460</v>
+      </c>
+      <c r="Q13" s="74">
+        <v>11</v>
+      </c>
+      <c r="R13" s="134">
+        <f t="shared" si="0"/>
+        <v>0.13095238095238096</v>
+      </c>
+      <c r="T13" s="145" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="146">
+        <f>R7</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P14" s="74" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q14" s="74">
+        <v>7</v>
+      </c>
+      <c r="R14" s="134">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T14" s="145" t="s">
+        <v>161</v>
+      </c>
+      <c r="U14" s="146">
+        <f>R5</f>
+        <v>4.7619047619047616E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P15" s="74" t="s">
+        <v>462</v>
+      </c>
+      <c r="Q15" s="74">
+        <v>12</v>
+      </c>
+      <c r="R15" s="134">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="T15" s="147"/>
+      <c r="U15" s="148"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+      <c r="P16" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="132"/>
+      <c r="T16" s="145"/>
+      <c r="U16" s="149"/>
+    </row>
+    <row r="17" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P17" s="74" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q17" s="74">
+        <v>4</v>
+      </c>
+      <c r="R17" s="134">
+        <f t="shared" si="0"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="T17" s="145"/>
+      <c r="U17" s="149"/>
+    </row>
+    <row r="18" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P18" t="s">
+        <v>465</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18" s="132"/>
+      <c r="T18" s="76"/>
+      <c r="U18" s="76"/>
+    </row>
+    <row r="19" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P19" s="74" t="s">
+        <v>466</v>
+      </c>
+      <c r="Q19" s="74">
+        <v>33</v>
+      </c>
+      <c r="R19" s="134">
+        <f t="shared" si="0"/>
+        <v>0.39285714285714285</v>
+      </c>
+    </row>
+    <row r="20" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="Q20" s="74">
+        <f>SUM(Q5:Q7,Q11:Q15,Q17,Q19)</f>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P22" s="74" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P23" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q23">
+        <v>1581937.8862804582</v>
+      </c>
+      <c r="R23" s="132">
+        <f>Q23/SUM($Q$23:$Q$24)</f>
+        <v>0.53533333333333433</v>
+      </c>
+    </row>
+    <row r="24" spans="16:21" x14ac:dyDescent="0.35">
+      <c r="P24" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q24">
+        <v>1373114.2051525216</v>
+      </c>
+      <c r="R24" s="132">
+        <f>Q24/SUM($Q$23:$Q$24)</f>
+        <v>0.46466666666666567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -9903,44 +10444,44 @@
   <dimension ref="A1:AQ17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="24" width="7.7109375" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.7265625" customWidth="1"/>
+    <col min="14" max="24" width="7.7265625" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="119" t="s">
         <v>164</v>
@@ -9964,25 +10505,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="119" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="119" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="119" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="119" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="119" t="s">
         <v>172</v>
@@ -10006,13 +10547,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="119" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="119" t="s">
         <v>179</v>
@@ -10060,7 +10601,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -10233,7 +10774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -10406,7 +10947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -10579,7 +11120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -10752,7 +11293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -10925,7 +11466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -11003,11 +11544,11 @@
       </c>
       <c r="T7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!T$1,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.41228070175438591</v>
+        <v>0.39285714285714285</v>
       </c>
       <c r="U7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.24561403508771928</v>
+        <v>0.13095238095238093</v>
       </c>
       <c r="V7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!V$1,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -11039,7 +11580,7 @@
       </c>
       <c r="AC7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!AC$1,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.15789473684210525</v>
+        <v>0.27380952380952384</v>
       </c>
       <c r="AD7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -11075,11 +11616,11 @@
       </c>
       <c r="AL7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!AL$1,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>0.14035087719298245</v>
+        <v>0.15476190476190477</v>
       </c>
       <c r="AM7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!AM$1,'Cost Breakdowns'!$B$4:$B$13)</f>
-        <v>4.3859649122807015E-2</v>
+        <v>4.7619047619047616E-2</v>
       </c>
       <c r="AN7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$4:$D$13,'SoESCaOMCbIC-capital'!AN$1,'Cost Breakdowns'!$B$4:$B$13)</f>
@@ -11098,7 +11639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -11271,7 +11812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -11444,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -11617,7 +12158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -11790,7 +12331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -11963,7 +12504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -12136,7 +12677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -12309,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -12482,7 +13023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -12655,7 +13196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -12833,7 +13374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -12842,40 +13383,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.08984375" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="13" max="24" width="8" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="7.140625" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="7.08984375" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="119" t="s">
         <v>164</v>
@@ -12899,25 +13440,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="119" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="119" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="119" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="119" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="119" t="s">
         <v>172</v>
@@ -12941,13 +13482,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="119" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="119" t="s">
         <v>179</v>
@@ -12995,7 +13536,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -13168,7 +13709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -13341,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -13514,7 +14055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -13687,7 +14228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -13860,7 +14401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -13938,7 +14479,7 @@
       </c>
       <c r="T7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'SoESCaOMCbIC-capital'!T$1,'Cost Breakdowns'!$B$15:$B$16)</f>
-        <v>0.64649275362318703</v>
+        <v>0.46466666666666567</v>
       </c>
       <c r="U7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'SoESCaOMCbIC-capital'!U$1,'Cost Breakdowns'!$B$15:$B$16)</f>
@@ -13974,7 +14515,7 @@
       </c>
       <c r="AC7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'SoESCaOMCbIC-capital'!AC$1,'Cost Breakdowns'!$B$15:$B$16)</f>
-        <v>0.35350724637681297</v>
+        <v>0.53533333333333433</v>
       </c>
       <c r="AD7" s="81">
         <f>SUMIF('Cost Breakdowns'!$D$15:$D$16,'SoESCaOMCbIC-capital'!AD$1,'Cost Breakdowns'!$B$15:$B$16)</f>
@@ -14033,7 +14574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -14206,7 +14747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -14379,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -14552,7 +15093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -14725,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -14898,7 +15439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -15071,7 +15612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -15244,7 +15785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -15417,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -15590,7 +16131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
@@ -15768,7 +16309,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
@@ -15777,40 +16318,40 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="24" width="8.28515625" customWidth="1"/>
-    <col min="25" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.7109375" customWidth="1"/>
-    <col min="29" max="33" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="36" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="39" max="40" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="41" max="43" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7265625" customWidth="1"/>
+    <col min="5" max="5" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="24" width="8.26953125" customWidth="1"/>
+    <col min="25" max="26" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.7265625" customWidth="1"/>
+    <col min="29" max="33" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" bestFit="1" customWidth="1"/>
+    <col min="39" max="40" width="6.7265625" bestFit="1" customWidth="1"/>
+    <col min="41" max="43" width="9.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.35">
       <c r="B1" s="119" t="s">
         <v>163</v>
       </c>
       <c r="C1" s="119" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D1" s="119" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="E1" s="119" t="s">
         <v>164</v>
@@ -15834,25 +16375,25 @@
         <v>170</v>
       </c>
       <c r="L1" s="119" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="M1" s="119" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N1" s="119" t="s">
         <v>171</v>
       </c>
       <c r="O1" s="119" t="s">
+        <v>434</v>
+      </c>
+      <c r="P1" s="119" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q1" s="119" t="s">
+        <v>436</v>
+      </c>
+      <c r="R1" s="119" t="s">
         <v>437</v>
-      </c>
-      <c r="P1" s="119" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q1" s="119" t="s">
-        <v>439</v>
-      </c>
-      <c r="R1" s="119" t="s">
-        <v>440</v>
       </c>
       <c r="S1" s="119" t="s">
         <v>172</v>
@@ -15876,13 +16417,13 @@
         <v>178</v>
       </c>
       <c r="Z1" s="119" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="AA1" s="119" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="AB1" s="119" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="AC1" s="119" t="s">
         <v>179</v>
@@ -15930,7 +16471,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>199</v>
       </c>
@@ -16103,7 +16644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>200</v>
       </c>
@@ -16276,7 +16817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>201</v>
       </c>
@@ -16449,7 +16990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>202</v>
       </c>
@@ -16622,7 +17163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>203</v>
       </c>
@@ -16753,7 +17294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>204</v>
       </c>
@@ -16884,7 +17425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>205</v>
       </c>
@@ -17015,7 +17556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>206</v>
       </c>
@@ -17188,7 +17729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>207</v>
       </c>
@@ -17361,7 +17902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>208</v>
       </c>
@@ -17534,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>209</v>
       </c>
@@ -17707,7 +18248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -17880,7 +18421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>211</v>
       </c>
@@ -18011,7 +18552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>212</v>
       </c>
@@ -18184,7 +18725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>213</v>
       </c>
@@ -18357,7 +18898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>214</v>
       </c>
